--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C17E956-F8FD-4ECC-B35C-2BC1A3A48587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69266A1-326E-4C2D-BF16-F295E6D443FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,12 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -953,6 +947,12 @@
   </si>
   <si>
     <t>UK Tax Rate</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1514,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2149,6 +2149,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3574,29 +3575,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3612,23 +3613,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3636,15 +3638,15 @@
         <v>18208334222</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3668,15 +3670,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3692,25 +3694,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3719,16 +3721,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3737,7 +3739,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3874,7 +3876,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>65072</v>
@@ -4144,11 +4146,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8690000378977826E-2</v>
+        <v>5.5480379892750994E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4193,7 +4195,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4559,7 +4561,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4567,7 +4569,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4577,11 +4579,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4595,10 +4597,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4647,7 +4649,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4668,7 +4670,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4686,7 +4688,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4792,7 +4794,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4828,8 +4830,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4872,17 +4874,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>71.95</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4892,40 +4894,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>18208334222</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>1310089.6472729002</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>269119.17493901018</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4948,11 +4950,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4972,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7820067405700684</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5015,7 +5017,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5065,7 +5067,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5105,7 +5107,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5155,12 +5157,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>5.8122355553100254E-2</v>
+        <v>3.6358668988255918E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5187,7 +5189,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.597670759899571E-2</v>
+        <v>4.1271989920217203E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5204,12 +5206,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5217,22 +5219,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.835580710190065</v>
+        <v>4.7811960697588516</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>82.70426276702554</v>
+        <v>9.4518897402968385</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.218330247282431</v>
-      </c>
-      <c r="G29" s="271">
+        <v>5.6249365526574726</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.916750232196122</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>8.2190345567798602</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5280,7 +5282,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5290,7 +5292,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5317,7 +5319,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6263,12 +6265,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6754,7 +6753,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6805,7 +6804,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6856,7 +6855,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6907,7 +6906,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7009,7 +7008,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7162,7 +7161,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8233,7 +8232,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8302,7 +8301,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8506,7 +8505,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11456,11 +11455,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11471,11 +11470,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11487,11 +11486,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11705,19 +11704,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11727,18 +11726,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11815,7 +11814,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11875,7 +11874,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11938,7 +11937,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11968,7 +11967,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12105,17 +12104,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8122355553100205E-2</v>
+        <v>3.6358668988255891E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8122355553100254E-2</v>
+        <v>3.6358668988255918E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8122355553100254E-2</v>
+        <v>3.6358668988255918E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12156,17 +12155,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8690000378977826E-2</v>
+        <v>5.5480379892750994E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.597670759899571E-2</v>
+        <v>4.1271989920217203E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.597670759899571E-2</v>
+        <v>4.1271989920217203E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12197,15 +12196,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12226,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>84.044542984237722</v>
+        <v>9.7339450392318145</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>84.044542984237722</v>
+        <v>9.7339450392318145</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12251,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>98.995642299620144</v>
+        <v>11.313756564419077</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>98.995642299620144</v>
+        <v>11.313756564419077</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12284,7 +12283,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12301,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>760835.09070526343</v>
+        <v>88119.069886940124</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.784991500540102</v>
+        <v>4.8394910161782576</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.784991500540102</v>
+        <v>4.8394910161782576</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.055317848063375</v>
+        <v>7.0713586769974919</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12364,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>760835.09070526343</v>
+        <v>88119.069886940124</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.517242775459088</v>
+        <v>4.1135673637515184</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.784991500540102</v>
+        <v>4.8394910161782576</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.784991500540102</v>
+        <v>4.8394910161782576</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.784991500540102</v>
+        <v>4.8394910161782576</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>61.055317848063375</v>
+        <v>7.0713586769974919</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12408,7 +12407,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12425,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>896183.80699129042</v>
+        <v>102420.72472833176</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.835580710190065</v>
+        <v>4.7811960697588516</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.218330247282431</v>
+        <v>5.6249365526574726</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>49.218330247282431</v>
+        <v>5.6249365526574726</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.218330247282431</v>
+        <v>5.6249365526574726</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.916750232196122</v>
+        <v>8.2190345567798602</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12469,7 +12468,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12486,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>828509.44884827686</v>
+        <v>95269.897307635954</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.676411742824577</v>
+        <v>4.447381716755185</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.501660873911263</v>
+        <v>5.2322137844178656</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.501660873911263</v>
+        <v>5.2322137844178656</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.501660873911263</v>
+        <v>5.2322137844178656</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.486034040129752</v>
+        <v>7.6451966168886756</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69266A1-326E-4C2D-BF16-F295E6D443FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC67649F-9F96-41C2-8F45-C70A73D925D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -931,6 +928,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1514,7 +1515,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2150,6 +2151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3578,12 +3582,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>259</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>260</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3624,7 +3628,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>261</v>
@@ -3632,7 +3636,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>18208334222</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>262</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3672,10 +3676,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3691,7 +3695,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3700,7 +3704,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>264</v>
@@ -3709,7 +3713,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>264</v>
@@ -3718,7 +3722,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>264</v>
@@ -3727,7 +3731,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>264</v>
@@ -3736,7 +3740,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>265</v>
@@ -3876,7 +3880,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>65072</v>
@@ -4128,7 +4132,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0.82</v>
@@ -4146,11 +4150,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5480379892750994E-2</v>
+        <v>8.8021364803971908E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4195,13 +4199,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4543,7 +4547,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4561,7 +4565,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4569,7 +4573,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4579,16 +4583,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4597,10 +4601,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4649,7 +4653,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4670,7 +4674,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4688,7 +4692,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4745,7 +4749,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4831,7 +4835,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4872,19 +4876,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>72.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4892,42 +4896,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>18208334222</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>269119.17493901018</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>1320104.2310949999</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4950,16 +4954,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4974,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>7.782376766204834</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4984,40 +4988,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5030,29 +5034,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5062,12 +5066,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5077,7 +5081,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5085,7 +5089,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5099,7 +5103,7 @@
         <v>3.237354486453075E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5107,7 +5111,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5118,14 +5122,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>2.3869305285384647E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5137,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5153,16 +5157,16 @@
         <v>0.55863466227121317</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.6358668988255918E-2</v>
+        <v>258</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>17.335778595085337</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5185,11 +5189,11 @@
         <v>0.10980570587494648</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.1271989920217203E-2</v>
+        <v>6.5479307963930325E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5206,12 +5210,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5219,42 +5223,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.7811960697588516</v>
+        <v>41.740051019371563</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.4518897402968385</v>
+        <v>82.515411255527766</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.6249365526574726</v>
-      </c>
-      <c r="G29" s="272">
+        <v>49.105942375731253</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.2190345567798602</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>71.752531526545894</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5264,7 +5268,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5275,14 +5279,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5292,7 +5296,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5302,14 +5306,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5319,7 +5323,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5334,14 +5338,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6326,16 +6330,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6353,7 +6357,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6386,7 +6390,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6753,7 +6757,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6804,7 +6808,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6855,7 +6859,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6906,7 +6910,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7008,7 +7012,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7161,7 +7165,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8232,7 +8236,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8301,7 +8305,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8505,7 +8509,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10403,7 +10407,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11455,11 +11459,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11470,11 +11474,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11486,11 +11490,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11704,19 +11708,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11726,18 +11730,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11814,7 +11818,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11874,7 +11878,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11937,7 +11941,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11967,7 +11971,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12100,28 +12104,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6358668988255891E-2</v>
+        <v>5.7684170025308082E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6358668988255918E-2</v>
+        <v>5.768417002530813E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6358668988255918E-2</v>
+        <v>5.768417002530813E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12151,21 +12155,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5480379892750994E-2</v>
+        <v>8.8021364803971908E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1271989920217203E-2</v>
+        <v>6.5479307963930325E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1271989920217203E-2</v>
+        <v>6.5479307963930325E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12196,15 +12200,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12221,24 +12225,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>9.7339450392318145</v>
+        <v>83.874654008251625</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>9.7339450392318145</v>
+        <v>83.874654008251625</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12246,18 +12250,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>11.313756564419077</v>
+        <v>98.769590146387856</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>11.313756564419077</v>
+        <v>98.769590146387856</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12276,14 +12280,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12300,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88119.069886940124</v>
+        <v>759297.12655120238</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.8394910161782576</v>
+        <v>41.700526654096166</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.8394910161782576</v>
+        <v>41.700526654096166</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.0713586769974919</v>
+        <v>60.931899657430122</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12367,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>88119.069886940124</v>
+        <v>759297.12655120238</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1135673637515184</v>
+        <v>35.445447655981738</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.8394910161782576</v>
+        <v>41.700526654096166</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.8394910161782576</v>
+        <v>41.700526654096166</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.8394910161782576</v>
+        <v>41.700526654096166</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>7.0713586769974919</v>
+        <v>60.931899657430122</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12400,14 +12404,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12424,27 +12428,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>102420.72472833176</v>
+        <v>894137.41106358741</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.7811960697588516</v>
+        <v>41.740051019371563</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.6249365526574726</v>
+        <v>49.105942375731253</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.6249365526574726</v>
+        <v>49.105942375731253</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.6249365526574726</v>
+        <v>49.105942375731253</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.2190345567798602</v>
+        <v>71.752531526545894</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12454,21 +12458,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12481,31 +12485,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>95269.897307635954</v>
+        <v>826717.26880739478</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.447381716755185</v>
+        <v>38.592749337676651</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.2322137844178656</v>
+        <v>45.403234514913706</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.2322137844178656</v>
+        <v>45.403234514913706</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.2322137844178656</v>
+        <v>45.403234514913706</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.6451966168886756</v>
+        <v>66.342215591988008</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC67649F-9F96-41C2-8F45-C70A73D925D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B48F89-9CFF-4F4B-83A1-9DC087288DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -957,6 +954,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3582,28 +3583,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3611,7 +3612,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3619,24 +3620,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>18208334222</v>
@@ -3644,15 +3645,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3660,7 +3661,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3668,7 +3669,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3676,80 +3677,80 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3798,7 +3799,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>116484</v>
@@ -3820,7 +3821,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>3771</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>32070</v>
@@ -3864,7 +3865,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3880,7 +3881,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="151">
         <v>65072</v>
@@ -3902,7 +3903,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>2127</v>
@@ -3924,7 +3925,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3940,7 +3941,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3956,7 +3957,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3972,7 +3973,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3988,7 +3989,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4004,7 +4005,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4020,7 +4021,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4036,7 +4037,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4052,7 +4053,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4068,7 +4069,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4084,7 +4085,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4100,7 +4101,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4116,7 +4117,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4132,7 +4133,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0.82</v>
@@ -4150,11 +4151,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8021364803971908E-2</v>
+        <v>8.7121650600324854E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4199,21 +4200,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4223,7 +4224,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4233,7 +4234,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4244,7 +4245,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4254,7 +4255,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4264,7 +4265,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4275,7 +4276,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4285,7 +4286,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4296,7 +4297,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4304,24 +4305,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4332,7 +4333,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4343,7 +4344,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4354,7 +4355,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4365,7 +4366,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4376,7 +4377,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4387,7 +4388,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4397,31 +4398,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4429,12 +4430,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4445,7 +4446,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4456,7 +4457,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4466,7 +4467,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4477,7 +4478,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4487,85 +4488,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4573,15 +4574,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4589,10 +4590,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4602,19 +4603,19 @@
         <v>(Numbers in 1000000USD)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4632,7 +4633,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4653,7 +4654,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4674,7 +4675,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4692,7 +4693,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4713,7 +4714,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4731,7 +4732,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4749,7 +4750,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4876,7 +4877,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4888,15 +4889,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>72.5</v>
+        <v>73.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4905,7 +4906,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4916,7 +4917,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4925,11 +4926,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1320104.2310949999</v>
+        <v>1333760.4817615</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4937,7 +4938,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4952,7 +4953,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4963,7 +4964,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4975,10 +4976,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782376766204834</v>
+        <v>7.7825133005777998</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4988,40 +4989,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5034,29 +5035,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5066,12 +5067,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5081,29 +5082,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>3.237354486453075E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5111,7 +5112,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5122,26 +5123,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>2.3869305285384647E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5150,30 +5151,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>0.55863466227121317</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.335778595085337</v>
+        <v>17.514806955152025</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5182,61 +5183,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.10980570587494648</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5479307963930325E-2</v>
+        <v>6.4810008373412387E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.740051019371563</v>
+        <v>41.609846871675799</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>82.515411255527766</v>
+        <v>82.258012221939978</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.105942375731253</v>
+        <v>48.952761025500941</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.752531526545894</v>
+        <v>71.528706279947812</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5244,21 +5245,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5268,7 +5269,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5279,14 +5280,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5296,7 +5297,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5306,14 +5307,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5323,7 +5324,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5338,14 +5339,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6325,21 +6326,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6350,14 +6351,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6379,7 +6380,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6390,7 +6391,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6401,7 +6402,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6451,7 +6452,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6502,7 +6503,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6553,7 +6554,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6604,7 +6605,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6655,7 +6656,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6706,7 +6707,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6757,7 +6758,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6808,7 +6809,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6859,7 +6860,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6910,7 +6911,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6961,7 +6962,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7012,7 +7013,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7063,7 +7064,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7114,7 +7115,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7165,7 +7166,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7216,7 +7217,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7267,7 +7268,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7318,7 +7319,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7369,7 +7370,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7420,7 +7421,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7471,7 +7472,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7522,7 +7523,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7573,7 +7574,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7624,7 +7625,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7675,7 +7676,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7726,7 +7727,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7777,7 +7778,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7828,7 +7829,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7879,7 +7880,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7930,7 +7931,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7981,7 +7982,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8032,7 +8033,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8083,7 +8084,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8134,7 +8135,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8185,7 +8186,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8236,7 +8237,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8254,7 +8255,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8305,7 +8306,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8356,7 +8357,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8407,7 +8408,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8458,7 +8459,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8509,7 +8510,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8560,7 +8561,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8611,7 +8612,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8629,7 +8630,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8680,7 +8681,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8731,7 +8732,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8748,7 +8749,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8798,7 +8799,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8848,7 +8849,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8898,7 +8899,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10257,7 +10258,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10267,12 +10268,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10286,7 +10287,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10296,7 +10297,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10314,10 +10315,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10327,7 +10328,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10341,7 +10342,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10352,7 +10353,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10364,7 +10365,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10382,7 +10383,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10401,32 +10402,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10443,7 +10444,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10454,7 +10455,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10471,7 +10472,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10482,7 +10483,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10499,7 +10500,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10510,7 +10511,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10527,7 +10528,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10538,7 +10539,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10555,7 +10556,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10565,7 +10566,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10587,7 +10588,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10609,7 +10610,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10630,7 +10631,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10655,7 +10656,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10682,7 +10683,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10703,7 +10704,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10720,7 +10721,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10732,13 +10733,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10760,7 +10761,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10780,7 +10781,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10789,7 +10790,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10809,7 +10810,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10822,7 +10823,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10842,7 +10843,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10855,7 +10856,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10872,7 +10873,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10888,7 +10889,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10897,7 +10898,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10913,7 +10914,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10923,7 +10924,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10940,7 +10941,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10950,7 +10951,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10967,7 +10968,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10977,7 +10978,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10997,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11007,7 +11008,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11024,7 +11025,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11034,7 +11035,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11060,7 +11061,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11087,7 +11088,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11114,7 +11115,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11135,7 +11136,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11156,7 +11157,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11177,7 +11178,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11198,7 +11199,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11215,7 +11216,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11233,7 +11234,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11252,7 +11253,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11271,7 +11272,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11288,7 +11289,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11301,7 +11302,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11318,7 +11319,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11331,7 +11332,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11348,7 +11349,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11358,7 +11359,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11375,7 +11376,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11391,14 +11392,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11410,12 +11411,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11445,7 +11446,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11456,7 +11457,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11471,7 +11472,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11482,12 +11483,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11511,11 +11512,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11525,7 +11526,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11546,7 +11547,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11567,7 +11568,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11588,7 +11589,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11603,7 +11604,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11634,11 +11635,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11648,7 +11649,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11669,7 +11670,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11684,7 +11685,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11706,7 +11707,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11714,15 +11715,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11731,22 +11732,22 @@
         <v>(Numbers in 1000000USD)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11767,7 +11768,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11797,7 +11798,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11818,7 +11819,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11848,7 +11849,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11878,7 +11879,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11909,7 +11910,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11936,12 +11937,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11971,7 +11972,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12001,7 +12002,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12031,7 +12032,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12052,7 +12053,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12083,7 +12084,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12104,28 +12105,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7684170025308082E-2</v>
+        <v>5.7094548775820028E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.768417002530813E-2</v>
+        <v>5.7094548775820077E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.768417002530813E-2</v>
+        <v>5.7094548775820077E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12155,21 +12156,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8021364803971908E-2</v>
+        <v>8.7121650600324854E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5479307963930325E-2</v>
+        <v>6.4810008373412387E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5479307963930325E-2</v>
+        <v>6.4810008373412387E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12186,27 +12187,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12225,24 +12226,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>83.874654008251625</v>
+        <v>83.642596261384085</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>83.874654008251625</v>
+        <v>83.642596261384085</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12250,18 +12251,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>98.769590146387856</v>
+        <v>98.461487736611161</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>98.769590146387856</v>
+        <v>98.461487736611161</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12280,51 +12281,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>759297.12655120238</v>
+        <v>757196.36342467868</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.700526654096166</v>
+        <v>41.585152941107886</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.700526654096166</v>
+        <v>41.585152941107886</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>60.931899657430122</v>
+        <v>60.763318105421916</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12342,7 +12343,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12363,31 +12364,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>759297.12655120238</v>
+        <v>757196.36342467868</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.445447655981738</v>
+        <v>35.347379999941701</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.700526654096166</v>
+        <v>41.585152941107886</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.700526654096166</v>
+        <v>41.585152941107886</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.700526654096166</v>
+        <v>41.585152941107886</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>60.931899657430122</v>
+        <v>60.763318105421916</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12397,58 +12398,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>894137.41106358741</v>
+        <v>891348.23384201655</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.740051019371563</v>
+        <v>41.609846871675799</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.105942375731253</v>
+        <v>48.952761025500941</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>49.105942375731253</v>
+        <v>48.952761025500941</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.105942375731253</v>
+        <v>48.952761025500941</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.752531526545894</v>
+        <v>71.528706279947812</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12458,58 +12459,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>826717.26880739478</v>
+        <v>824272.29863334761</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.592749337676651</v>
+        <v>38.478613435808754</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.403234514913706</v>
+        <v>45.268956983304413</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.403234514913706</v>
+        <v>45.268956983304413</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.403234514913706</v>
+        <v>45.268956983304413</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.342215591988008</v>
+        <v>66.146012192684864</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12518,7 +12519,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B48F89-9CFF-4F4B-83A1-9DC087288DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1A8E99-DAEA-4048-9672-A156C6CC1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7121650600324854E-2</v>
+        <v>8.7063191532275513E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4799,7 +4799,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.25</v>
+        <v>73.3</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1333760.4817615</v>
+        <v>1334670.8984725999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825133005777998</v>
+        <v>7.782599925994873</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.514806955152025</v>
+        <v>17.526567370473838</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4810008373412387E-2</v>
+        <v>6.4766520530107397E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.609846871675799</v>
+        <v>41.601813694415135</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>82.258012221939978</v>
+        <v>82.242131529196101</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.952761025500941</v>
+        <v>48.943310228723689</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.528706279947812</v>
+        <v>71.514896981909658</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7094548775820028E-2</v>
+        <v>5.7056238044915226E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7094548775820077E-2</v>
+        <v>5.7056238044915275E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7094548775820077E-2</v>
+        <v>5.7056238044915275E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7121650600324854E-2</v>
+        <v>8.7063191532275513E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4810008373412387E-2</v>
+        <v>6.4766520530107397E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4810008373412387E-2</v>
+        <v>6.4766520530107397E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>83.642596261384085</v>
+        <v>83.628371517190075</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>83.642596261384085</v>
+        <v>83.628371517190075</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>98.461487736611161</v>
+        <v>98.442478808585633</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>98.461487736611161</v>
+        <v>98.442478808585633</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>757196.36342467868</v>
+        <v>757067.59022710018</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.585152941107886</v>
+        <v>41.578080729229058</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.585152941107886</v>
+        <v>41.578080729229058</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>60.763318105421916</v>
+        <v>60.752984343737523</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>757196.36342467868</v>
+        <v>757067.59022710018</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.347379999941701</v>
+        <v>35.341368619844701</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.585152941107886</v>
+        <v>41.578080729229058</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.585152941107886</v>
+        <v>41.578080729229058</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.585152941107886</v>
+        <v>41.578080729229058</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>60.763318105421916</v>
+        <v>60.752984343737523</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>891348.23384201655</v>
+        <v>891176.15057563223</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.609846871675799</v>
+        <v>41.601813694415135</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.952761025500941</v>
+        <v>48.943310228723689</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.952761025500941</v>
+        <v>48.943310228723689</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.952761025500941</v>
+        <v>48.943310228723689</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.528706279947812</v>
+        <v>71.514896981909658</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>824272.29863334761</v>
+        <v>824121.87040136626</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.478613435808754</v>
+        <v>38.471591157129922</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.268956983304413</v>
+        <v>45.260695478976373</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.268956983304413</v>
+        <v>45.260695478976373</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.268956983304413</v>
+        <v>45.260695478976373</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.146012192684864</v>
+        <v>66.133940662823591</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1A8E99-DAEA-4048-9672-A156C6CC1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9DABC9D-D704-4561-8B2A-BE1C7EFBFD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7063191532275513E-2</v>
+        <v>8.6826731753187114E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.3</v>
+        <v>73.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1334670.8984725999</v>
+        <v>1338312.565317</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782599925994873</v>
+        <v>7.7826399803161621</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.526567370473838</v>
+        <v>17.574298387925708</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4766520530107397E-2</v>
+        <v>6.4590617523712368E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.601813694415135</v>
+        <v>41.567675182819904</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>82.242131529196101</v>
+        <v>82.174643510970526</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.943310228723689</v>
+        <v>48.903147273905773</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.514896981909658</v>
+        <v>71.456211748670029</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7056238044915226E-2</v>
+        <v>5.690127582487399E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7056238044915275E-2</v>
+        <v>5.6901275824874038E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7056238044915275E-2</v>
+        <v>5.6901275824874038E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7063191532275513E-2</v>
+        <v>8.6826731753187114E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4766520530107397E-2</v>
+        <v>6.4590617523712368E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4766520530107397E-2</v>
+        <v>6.4590617523712368E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>83.628371517190075</v>
+        <v>83.567520861295719</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>83.628371517190075</v>
+        <v>83.567520861295719</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>98.442478808585633</v>
+        <v>98.361696760741381</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>98.442478808585633</v>
+        <v>98.361696760741381</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>757067.59022710018</v>
+        <v>756516.72383348388</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.578080729229058</v>
+        <v>41.547827198790742</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.578080729229058</v>
+        <v>41.547827198790742</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>60.752984343737523</v>
+        <v>60.708778545181517</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>757067.59022710018</v>
+        <v>756516.72383348388</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.341368619844701</v>
+        <v>35.315653118972129</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.578080729229058</v>
+        <v>41.547827198790742</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.578080729229058</v>
+        <v>41.547827198790742</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.578080729229058</v>
+        <v>41.547827198790742</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>60.752984343737523</v>
+        <v>60.708778545181517</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>891176.15057563223</v>
+        <v>890444.85007096443</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.601813694415135</v>
+        <v>41.567675182819904</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.943310228723689</v>
+        <v>48.903147273905773</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.943310228723689</v>
+        <v>48.903147273905773</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.943310228723689</v>
+        <v>48.903147273905773</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.514896981909658</v>
+        <v>71.456211748670029</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>824121.87040136626</v>
+        <v>823480.78695222409</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.471591157129922</v>
+        <v>38.441664150896017</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.260695478976373</v>
+        <v>45.225487236348258</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.260695478976373</v>
+        <v>45.225487236348258</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.260695478976373</v>
+        <v>45.225487236348258</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.133940662823591</v>
+        <v>66.082495146925766</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9DABC9D-D704-4561-8B2A-BE1C7EFBFD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D9F2B0-0856-4191-8D2E-842C22EA786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6826731753187114E-2</v>
+        <v>8.6824203067355679E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7826399803161621</v>
+        <v>7.7824133237202959</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.574298387925708</v>
+        <v>17.574810225383022</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4590617523712368E-2</v>
+        <v>6.4588736428154839E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.567675182819904</v>
+        <v>41.566097361235116</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>82.174643510970526</v>
+        <v>82.171524334213984</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.903147273905773</v>
+        <v>48.901291013217786</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.456211748670029</v>
+        <v>71.453499421055639</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.690127582487399E-2</v>
+        <v>5.6899618668753246E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6901275824874038E-2</v>
+        <v>5.6899618668753295E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6901275824874038E-2</v>
+        <v>5.6899618668753295E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6826731753187114E-2</v>
+        <v>8.6824203067355679E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4590617523712368E-2</v>
+        <v>6.4588736428154839E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4590617523712368E-2</v>
+        <v>6.4588736428154839E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>83.567520861295719</v>
+        <v>83.564431972123387</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>83.567520861295719</v>
+        <v>83.564431972123387</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>98.361696760741381</v>
+        <v>98.357963157464724</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>98.361696760741381</v>
+        <v>98.357963157464724</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>756516.72383348388</v>
+        <v>756488.76086063439</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.547827198790742</v>
+        <v>41.546291474956341</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.547827198790742</v>
+        <v>41.546291474956341</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>60.708778545181517</v>
+        <v>60.706534579023597</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>756516.72383348388</v>
+        <v>756488.76086063439</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.315653118972129</v>
+        <v>35.314347753712887</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.547827198790742</v>
+        <v>41.546291474956341</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.547827198790742</v>
+        <v>41.546291474956341</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.547827198790742</v>
+        <v>41.546291474956341</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>60.708778545181517</v>
+        <v>60.706534579023597</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>890444.85007096443</v>
+        <v>890411.05065595452</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.567675182819904</v>
+        <v>41.566097361235116</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.903147273905773</v>
+        <v>48.901291013217786</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.903147273905773</v>
+        <v>48.901291013217786</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.903147273905773</v>
+        <v>48.901291013217786</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.456211748670029</v>
+        <v>71.453499421055639</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>823480.78695222409</v>
+        <v>823449.90575829451</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.441664150896017</v>
+        <v>38.440222557474002</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.225487236348258</v>
+        <v>45.223791244087067</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.225487236348258</v>
+        <v>45.223791244087067</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.225487236348258</v>
+        <v>45.223791244087067</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.082495146925766</v>
+        <v>66.080017000039618</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D9F2B0-0856-4191-8D2E-842C22EA786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1AEF8F-4B7B-4615-9F8A-49E869170F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6824203067355679E-2</v>
+        <v>8.6826135933804671E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4592,7 +4592,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824133237202959</v>
+        <v>7.7825865745544434</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.574810225383022</v>
+        <v>17.574418986493178</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4588736428154839E-2</v>
+        <v>6.459017429222054E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.566097361235116</v>
+        <v>41.567303407832064</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>82.171524334213984</v>
+        <v>82.173908553411351</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.901291013217786</v>
+        <v>48.902709891567135</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.453499421055639</v>
+        <v>71.455572655140315</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6899618668753246E-2</v>
+        <v>5.6900885358915666E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6899618668753295E-2</v>
+        <v>5.6900885358915708E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6899618668753295E-2</v>
+        <v>5.6900885358915708E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6824203067355679E-2</v>
+        <v>8.6826135933804671E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4588736428154839E-2</v>
+        <v>6.459017429222054E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4588736428154839E-2</v>
+        <v>6.459017429222054E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>83.564431972123387</v>
+        <v>83.566793040685653</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>83.564431972123387</v>
+        <v>83.566793040685653</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>98.357963157464724</v>
+        <v>98.360817028630876</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>98.357963157464724</v>
+        <v>98.360817028630876</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>756488.76086063439</v>
+        <v>756510.13504805858</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.546291474956341</v>
+        <v>41.547465343315942</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.546291474956341</v>
+        <v>41.547465343315942</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>60.706534579023597</v>
+        <v>60.708249809857293</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>756488.76086063439</v>
+        <v>756510.13504805858</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.314347753712887</v>
+        <v>35.315345541818552</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.546291474956341</v>
+        <v>41.547465343315942</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.546291474956341</v>
+        <v>41.547465343315942</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.546291474956341</v>
+        <v>41.547465343315942</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>60.706534579023597</v>
+        <v>60.708249809857293</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>890411.05065595452</v>
+        <v>890436.88606715982</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.566097361235116</v>
+        <v>41.567303407832064</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.901291013217786</v>
+        <v>48.902709891567135</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.901291013217786</v>
+        <v>48.902709891567135</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.901291013217786</v>
+        <v>48.902709891567135</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.453499421055639</v>
+        <v>71.455572655140315</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>823449.90575829451</v>
+        <v>823473.51055760926</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.440222557474002</v>
+        <v>38.441324474825308</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.223791244087067</v>
+        <v>45.225087617441538</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.223791244087067</v>
+        <v>45.225087617441538</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.223791244087067</v>
+        <v>45.225087617441538</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.080017000039618</v>
+        <v>66.081911232498811</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1AEF8F-4B7B-4615-9F8A-49E869170F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A85B4EDB-C3B3-4B2A-91BD-F5625AD59193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6826135933804671E-2</v>
+        <v>8.6825763546690637E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825865745544434</v>
+        <v>7.7825531959533691</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5028,7 +5028,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5075,7 +5075,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.574418986493178</v>
+        <v>17.574494361438351</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.459017429222054E-2</v>
+        <v>6.4589897272538166E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.567303407832064</v>
+        <v>42.53374712005116</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>82.173908553411351</v>
+        <v>84.678553800581696</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.902709891567135</v>
+        <v>50.039702494177838</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.455572655140315</v>
+        <v>73.633525043984093</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900885358915666E-2</v>
+        <v>5.6900641317691715E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900885358915708E-2</v>
+        <v>5.6900641317691764E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900885358915708E-2</v>
+        <v>5.6900641317691764E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6826135933804671E-2</v>
+        <v>8.6825763546690637E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.459017429222054E-2</v>
+        <v>6.4589897272538166E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.459017429222054E-2</v>
+        <v>6.4589897272538166E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>83.566793040685653</v>
+        <v>85.50974136687978</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>83.566793040685653</v>
+        <v>85.50974136687978</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>98.360817028630876</v>
+        <v>100.64771527202625</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>98.360817028630876</v>
+        <v>100.64771527202625</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>756510.13504805858</v>
+        <v>774099.18025558384</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.547465343315942</v>
+        <v>42.513454048986418</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.547465343315942</v>
+        <v>42.513454048986418</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>60.708249809857293</v>
+        <v>62.558634991615598</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>756510.13504805858</v>
+        <v>774099.18025558384</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.315345541818552</v>
+        <v>36.136435941638453</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.547465343315942</v>
+        <v>42.513454048986418</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.547465343315942</v>
+        <v>42.513454048986418</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.547465343315942</v>
+        <v>42.513454048986418</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>60.708249809857293</v>
+        <v>62.558634991615598</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>890436.88606715982</v>
+        <v>911139.62738343712</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.567303407832064</v>
+        <v>42.53374712005116</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.902709891567135</v>
+        <v>50.039702494177838</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.902709891567135</v>
+        <v>50.039702494177838</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.902709891567135</v>
+        <v>50.039702494177838</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.455572655140315</v>
+        <v>73.633525043984093</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>823473.51055760926</v>
+        <v>842619.40381951036</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.441324474825308</v>
+        <v>39.335091530844807</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.225087617441538</v>
+        <v>46.276578271582125</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.225087617441538</v>
+        <v>46.276578271582125</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.225087617441538</v>
+        <v>46.276578271582125</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.081911232498811</v>
+        <v>68.096080017799849</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A85B4EDB-C3B3-4B2A-91BD-F5625AD59193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{999838CA-2266-49CF-B0E9-7159D68F294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>18208334222</v>
       </c>
     </row>
@@ -3647,47 +3651,47 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -3695,55 +3699,55 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>264</v>
       </c>
       <c r="D22" s="24"/>
@@ -3801,399 +3805,399 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>116484</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>67950</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>52976</v>
       </c>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>3771</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>3354</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>3691</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>32070</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>32701</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>34620</v>
       </c>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>65072</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>22449</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>9699</v>
       </c>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>2127</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>1822</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>2079</v>
       </c>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.82</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6825763546690637E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>8.6702633465545756E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4202,10 +4206,10 @@
       <c r="B47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4304,7 +4308,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4316,7 +4320,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4336,7 +4340,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4404,7 +4408,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4416,7 +4420,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4429,7 +4433,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4477,14 +4481,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4568,7 +4572,7 @@
       <c r="B86" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4576,19 +4580,20 @@
       <c r="B87" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>265</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4602,14 +4607,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4621,12 +4626,12 @@
         <f>C25</f>
         <v>116484</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>116484</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>116484</v>
       </c>
@@ -4639,15 +4644,15 @@
         <f>C26</f>
         <v>3771</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>3.237354486453075E-2</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>3771</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>3771</v>
       </c>
@@ -4660,15 +4665,15 @@
         <f>C27+C28</f>
         <v>32070</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>32069.999999999996</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>32069.999999999996</v>
       </c>
@@ -4681,12 +4686,12 @@
         <f>C29</f>
         <v>65072</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>0.55863466227121317</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>65071.999999999993</v>
       </c>
@@ -4699,15 +4704,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4720,12 +4725,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4738,12 +4743,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2780.3921568627452</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>2.3869305285384647E-2</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>2780.3921568627452</v>
       </c>
@@ -4752,16 +4757,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.82</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.61</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <v>0.61</v>
       </c>
       <c r="G98" s="1"/>
@@ -4879,17 +4884,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4899,40 +4904,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>18208334222</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1338312.565317</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>1340133.3987391999</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4940,11 +4945,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4955,22 +4960,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825531959533691</v>
+        <v>7.7820900281270342</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4999,7 +5004,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5010,7 +5015,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5024,11 +5029,11 @@
       <c r="B12" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5037,7 +5042,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5048,7 +5053,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5059,10 +5064,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5074,10 +5079,10 @@
       <c r="B17" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5099,14 +5104,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>3.237354486453075E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5114,7 +5119,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.27531678170392498</v>
       </c>
@@ -5125,7 +5130,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>2.3869305285384647E-2</v>
       </c>
@@ -5137,14 +5142,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5153,30 +5158,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.55863466227121317</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.574494361438351</v>
+        <v>17.599452645060317</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>1.1351347854221043</v>
       </c>
@@ -5185,16 +5190,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.10980570587494648</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4589897272538166E-2</v>
+        <v>6.449830050485722E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5213,10 +5218,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5224,22 +5229,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.53374712005116</v>
+        <v>41.54671933647613</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>84.678553800581696</v>
+        <v>82.13321614715484</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>50.039702494177838</v>
-      </c>
-      <c r="G29" s="273">
+        <v>48.87849333703074</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>73.633525043984093</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>71.420187954047691</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5251,17 +5256,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -5271,7 +5276,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5279,17 +5284,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5299,24 +5304,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5326,7 +5331,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -5345,10 +5350,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6330,16 +6335,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6353,11 +6358,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6390,7 +6395,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6454,47 +6459,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>116484</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>67950</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>52976</v>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6556,47 +6561,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>3771</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>3354</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>3691</v>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6607,47 +6612,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>112713</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>64596</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>49285</v>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6658,47 +6663,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>32070</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>32701</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>34620</v>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6709,47 +6714,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6760,47 +6765,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2780.3921568627452</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2381.6993464052289</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2717.6470588235293</v>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6808,50 +6813,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.66844036814615959</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.43433849379830419</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>0.22552387762716081</v>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6859,50 +6864,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>77862.607843137259</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>29513.300653594772</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>11947.35294117647</v>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6910,50 +6915,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>1.6382209417045821</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>1.4702794668329739</v>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6964,47 +6969,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7015,47 +7020,47 @@
       <c r="B17" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>65072</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>22449</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>9699</v>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7066,47 +7071,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7117,47 +7122,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7168,47 +7173,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7219,47 +7224,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7270,47 +7275,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>12790.607843137259</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>7064.3006535947716</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>2248.3529411764703</v>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7321,47 +7326,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>8.4001364994333999E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>7.9531861662987494E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>3.2467343702808814E-2</v>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7372,7 +7377,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>9784.8150000000023</v>
       </c>
@@ -7420,50 +7425,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.81059788793510246</v>
       </c>
-      <c r="D25" s="234">
+      <c r="D25" s="233">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>2.1419891976116148</v>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7580,43 +7585,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7631,43 +7636,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7682,43 +7687,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7733,43 +7738,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7784,43 +7789,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7835,43 +7840,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7886,43 +7891,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7988,43 +7993,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8039,43 +8044,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8090,43 +8095,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8188,47 +8193,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8257,47 +8262,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>3.237354486453075E-2</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>4.9359823399558501E-2</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>6.9673059498640888E-2</v>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8308,47 +8313,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.48125091979396617</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.65350347327091518</v>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8359,47 +8364,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8410,47 +8415,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.55863466227121317</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>0.33037527593818983</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>0.18308290546662639</v>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8461,47 +8466,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>2.3869305285384647E-2</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>3.5050763008171136E-2</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>5.1299589603283173E-2</v>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8512,47 +8517,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8563,47 +8568,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.10980570587494642</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.10396321786011437</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>4.2440972160534399E-2</v>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8632,47 +8637,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8683,47 +8688,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8751,47 +8756,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8801,47 +8806,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8851,47 +8856,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>5.0874830030000551</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>3.1778092554110788</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>4.3138244989796455</v>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8901,47 +8906,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10239,8 +10244,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10289,7 +10294,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10386,7 +10391,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10433,7 +10438,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10461,7 +10466,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10489,7 +10494,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10517,7 +10522,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10530,7 +10535,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10545,7 +10550,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10572,7 +10577,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10594,7 +10599,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10616,7 +10621,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10637,7 +10642,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10662,7 +10667,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10689,7 +10694,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10710,7 +10715,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10875,7 +10880,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10904,7 +10909,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10930,7 +10935,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10957,7 +10962,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10984,7 +10989,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11000,7 +11005,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11014,7 +11019,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11041,7 +11046,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11067,7 +11072,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11094,7 +11099,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11121,7 +11126,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11142,7 +11147,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11163,7 +11168,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11184,7 +11189,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11205,7 +11210,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11351,7 +11356,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11460,11 +11465,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11475,11 +11480,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11491,11 +11496,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11591,8 +11596,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11672,8 +11677,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11709,19 +11714,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11731,18 +11736,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11753,17 +11758,17 @@
         <f>Data!C6</f>
         <v>116484</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>116484</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>116484</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11774,23 +11779,23 @@
         <f>Data!C8</f>
         <v>3771</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>3.237354486453075E-2</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>3771</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>3.237354486453075E-2</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>3771</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>3.237354486453075E-2</v>
       </c>
@@ -11800,21 +11805,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>112713</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>112713</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>112713</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11825,23 +11830,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>32070</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>32069.999999999996</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>32069.999999999996</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.27531678170392498</v>
       </c>
@@ -11855,54 +11860,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>2780.3921568627452</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>2.3869305285384647E-2</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>2780.3921568627452</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>2.3869305285384647E-2</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>2780.3921568627452</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>2.3869305285384647E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>77862.607843137259</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.66844036814615959</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>77862.607843137259</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.66844036814615959</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>77862.607843137259</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.66844036814615959</v>
       </c>
@@ -11916,27 +11921,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11948,23 +11953,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>65072</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>0.55863466227121317</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>65071.999999999993</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>0.55863466227121317</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>65071.999999999993</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>0.55863466227121317</v>
       </c>
@@ -11978,23 +11983,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12004,27 +12009,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>12790.607843137259</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.10980570587494642</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>12790.607843137266</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.10980570587494648</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>12790.607843137266</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.10980570587494648</v>
       </c>
@@ -12034,49 +12039,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>9784.8150000000023</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>8.4001364994333999E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>9784.8150000000096</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>8.4001364994334068E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>9784.8150000000096</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>8.4001364994334068E-2</v>
       </c>
@@ -12086,69 +12091,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.53738111793761001</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.53738111793761045</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.53738111793761045</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900641317691715E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>5.681994890225589E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900641317691764E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>5.6819948902255925E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900641317691764E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>5.6819948902255925E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.82</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>1.5259188918788955</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.61</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>1.1351347854221043</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.61</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>1.1351347854221043</v>
       </c>
@@ -12158,21 +12163,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6825763546690637E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>8.6702633465545756E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4589897272538166E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.449830050485722E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4589897272538166E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>6.449830050485722E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12194,22 +12199,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12219,9 +12224,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12229,15 +12234,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>85.50974136687978</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>83.529470909352384</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>85.50974136687978</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>83.529470909352384</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12245,24 +12250,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>100.64771527202625</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>98.312108887607607</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>100.64771527202625</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>98.312108887607607</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12283,14 +12291,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12305,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>774099.18025558384</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>756172.26674429991</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>42.513454048986418</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>41.528909647905294</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>42.513454048986418</v>
+        <v>41.528909647905294</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>62.558634991615598</v>
+        <v>60.681136632601422</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12331,14 +12339,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12349,17 +12357,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12368,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>774099.18025558384</v>
+        <v>756172.26674429991</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>36.136435941638453</v>
+        <v>35.2995732007195</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>42.513454048986418</v>
+        <v>41.528909647905294</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>42.513454048986418</v>
+        <v>41.528909647905294</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>42.513454048986418</v>
+        <v>41.528909647905294</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>62.558634991615598</v>
+        <v>60.681136632601422</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12407,14 +12415,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12429,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>911139.62738343712</v>
+        <v>889995.94294845581</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.53374712005116</v>
+        <v>41.54671933647613</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>50.039702494177838</v>
+        <v>48.87849333703074</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>50.039702494177838</v>
+        <v>48.87849333703074</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>50.039702494177838</v>
+        <v>48.87849333703074</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>73.633525043984093</v>
+        <v>71.420187954047691</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12468,14 +12476,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12490,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>842619.40381951036</v>
+        <v>823084.10484637786</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>39.335091530844807</v>
+        <v>38.423146268597819</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>46.276578271582125</v>
+        <v>45.203701492468014</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>46.276578271582125</v>
+        <v>45.203701492468014</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>46.276578271582125</v>
+        <v>45.203701492468014</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>68.096080017799849</v>
+        <v>66.050662293324564</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999838CA-2266-49CF-B0E9-7159D68F294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4FAC50-9946-4462-AB88-D8B5BBD402C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>HSBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0014</t>
@@ -3574,7 +3577,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3627,7 +3630,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3636,7 +3639,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3652,7 +3655,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3695,7 +3698,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3703,7 +3706,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3712,7 +3715,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3721,7 +3724,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3730,7 +3733,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3739,7 +3742,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3748,7 +3751,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4159,7 +4162,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6702633465545756E-2</v>
+        <v>8.6825430171559997E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4581,9 +4584,11 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>266</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4894,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.599999999999994</v>
+        <v>73.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4935,7 +4940,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1340133.3987391999</v>
+        <v>1338312.565317</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4973,7 +4978,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -4984,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7820900281270342</v>
+        <v>7.782523314158122</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5030,10 +5035,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5080,7 +5085,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.599452645060317</v>
+        <v>17.574561840509197</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5199,7 +5204,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.449830050485722E-2</v>
+        <v>6.4589649273965363E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5229,20 +5234,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.54671933647613</v>
+        <v>41.566863033230099</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>82.13321614715484</v>
+        <v>74.880069800386082</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.87849333703074</v>
+        <v>48.902191803800115</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.420187954047691</v>
+        <v>65.113104174248775</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12114,17 +12119,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.681994890225589E-2</v>
+        <v>5.6900422842691235E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6819948902255925E-2</v>
+        <v>5.6900422842691277E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6819948902255925E-2</v>
+        <v>5.6900422842691277E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12165,17 +12170,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6702633465545756E-2</v>
+        <v>8.6825430171559997E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.449830050485722E-2</v>
+        <v>6.4589649273965363E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.449830050485722E-2</v>
+        <v>6.4589649273965363E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12224,7 +12229,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12235,14 +12240,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>83.529470909352384</v>
+        <v>83.565930922880312</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>83.529470909352384</v>
+        <v>83.565930922880312</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12256,21 +12261,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>98.312108887607607</v>
+        <v>98.359774969076923</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>98.312108887607607</v>
+        <v>98.359774969076923</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12318,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>756172.26674429991</v>
+        <v>756502.33050233405</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.528909647905294</v>
+        <v>41.547036718400044</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.528909647905294</v>
+        <v>41.547036718400044</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>60.681136632601422</v>
+        <v>55.319739876491582</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12381,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>756172.26674429991</v>
+        <v>756502.33050233405</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.2995732007195</v>
+        <v>35.314981210640035</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.528909647905294</v>
+        <v>41.547036718400044</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.528909647905294</v>
+        <v>41.547036718400044</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.528909647905294</v>
+        <v>41.547036718400044</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>60.681136632601422</v>
+        <v>55.319739876491582</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12442,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>889995.94294845581</v>
+        <v>890427.4525519415</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.54671933647613</v>
+        <v>41.566863033230099</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.87849333703074</v>
+        <v>48.902191803800115</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.87849333703074</v>
+        <v>48.902191803800115</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.87849333703074</v>
+        <v>48.902191803800115</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.420187954047691</v>
+        <v>65.113104174248775</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12503,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>823084.10484637786</v>
+        <v>823464.89152713784</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.423146268597819</v>
+        <v>38.440922121935067</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.203701492468014</v>
+        <v>45.224614261100079</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.203701492468014</v>
+        <v>45.224614261100079</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.203701492468014</v>
+        <v>45.224614261100079</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.050662293324564</v>
+        <v>60.216422025370179</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4FAC50-9946-4462-AB88-D8B5BBD402C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CD25FF-AF83-4E90-B58F-2086698BF77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6825430171559997E-2</v>
+        <v>8.6644216392018122E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.5</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1338312.565317</v>
+        <v>1341043.8154503</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4989,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782523314158122</v>
+        <v>7.7821299235026045</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.574561840509197</v>
+        <v>17.611318509419466</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4589649273965363E-2</v>
+        <v>6.4454843901379344E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5234,20 +5234,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.566863033230099</v>
+        <v>41.538452553627849</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>74.880069800386082</v>
+        <v>74.828890121660308</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.902191803800115</v>
+        <v>48.868767710150408</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.113104174248775</v>
+        <v>65.068600105791575</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12119,17 +12119,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900422842691235E-2</v>
+        <v>5.678166569215963E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900422842691277E-2</v>
+        <v>5.6781665692159679E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6900422842691277E-2</v>
+        <v>5.6781665692159679E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12170,17 +12170,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6825430171559997E-2</v>
+        <v>8.6644216392018122E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4589649273965363E-2</v>
+        <v>6.4454843901379344E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4589649273965363E-2</v>
+        <v>6.4454843901379344E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12240,14 +12240,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>83.565930922880312</v>
+        <v>83.514770908128938</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>83.565930922880312</v>
+        <v>83.514770908128938</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12268,14 +12268,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>98.359774969076923</v>
+        <v>98.292547178078905</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>98.359774969076923</v>
+        <v>98.292547178078905</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12318,21 +12318,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>756502.33050233405</v>
+        <v>756039.19115881785</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.547036718400044</v>
+        <v>41.521601149288145</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.547036718400044</v>
+        <v>41.521601149288145</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>55.319739876491582</v>
+        <v>55.285872501631182</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12381,27 +12381,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>756502.33050233405</v>
+        <v>756039.19115881785</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.314981210640035</v>
+        <v>35.293360976894924</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.547036718400044</v>
+        <v>41.521601149288145</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.547036718400044</v>
+        <v>41.521601149288145</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.547036718400044</v>
+        <v>41.521601149288145</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>55.319739876491582</v>
+        <v>55.285872501631182</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>890427.4525519415</v>
+        <v>889818.85548370017</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.566863033230099</v>
+        <v>41.538452553627849</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.902191803800115</v>
+        <v>48.868767710150408</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.902191803800115</v>
+        <v>48.868767710150408</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.902191803800115</v>
+        <v>48.868767710150408</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>65.113104174248775</v>
+        <v>65.068600105791575</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>823464.89152713784</v>
+        <v>822929.02332125907</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.440922121935067</v>
+        <v>38.415906765261383</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.224614261100079</v>
+        <v>45.195184429719276</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.224614261100079</v>
+        <v>45.195184429719276</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.224614261100079</v>
+        <v>45.195184429719276</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>60.216422025370179</v>
+        <v>60.177236303711382</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CD25FF-AF83-4E90-B58F-2086698BF77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26E119A-317A-42E7-B482-53347D702CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -929,6 +929,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3577,7 +3585,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,7 +3606,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3606,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3630,7 +3638,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3647,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3663,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3698,7 +3706,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3706,7 +3714,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3715,7 +3723,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3724,7 +3732,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3733,7 +3741,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3742,7 +3750,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3751,7 +3759,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4162,7 +4170,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6644216392018122E-2</v>
+        <v>8.5652350696216156E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4283,7 +4291,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4395,7 +4403,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4584,7 +4592,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4899,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.650000000000006</v>
+        <v>74.45</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4940,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1341043.8154503</v>
+        <v>1355610.4828279002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4989,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7821299235026045</v>
+        <v>7.7766067186991377</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5035,10 +5043,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5085,7 +5093,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5172,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.611318509419466</v>
+        <v>17.815259937125166</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,7 +5212,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4454843901379344E-2</v>
+        <v>6.3716992591087637E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5234,20 +5242,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.538452553627849</v>
+        <v>49.413759593740323</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>74.828890121660308</v>
+        <v>93.555378093064704</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.868767710150408</v>
+        <v>58.133834816165091</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.068600105791575</v>
+        <v>81.352502689621488</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12119,17 +12127,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.678166569215963E-2</v>
+        <v>5.6131653623313245E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6781665692159679E-2</v>
+        <v>5.6131653623313293E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6781665692159679E-2</v>
+        <v>5.6131653623313293E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12170,17 +12178,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6644216392018122E-2</v>
+        <v>8.5652350696216156E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4454843901379344E-2</v>
+        <v>6.3716992591087637E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4454843901379344E-2</v>
+        <v>6.3716992591087637E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12229,7 +12237,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12240,14 +12248,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>83.514770908128938</v>
+        <v>99.387222127494468</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>83.514770908128938</v>
+        <v>99.387222127494468</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12268,14 +12276,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>98.292547178078905</v>
+        <v>116.92790649443135</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>98.292547178078905</v>
+        <v>116.92790649443135</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12318,21 +12326,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>756039.19115881785</v>
+        <v>899728.68525798526</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.521601149288145</v>
+        <v>49.413014627713657</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.521601149288145</v>
+        <v>49.413014627713657</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>55.285872501631182</v>
+        <v>69.148584780537959</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12381,27 +12389,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>756039.19115881785</v>
+        <v>899728.68525798526</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.293360976894924</v>
+        <v>42.001062433556605</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>41.521601149288145</v>
+        <v>49.413014627713657</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>41.521601149288145</v>
+        <v>49.413014627713657</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.521601149288145</v>
+        <v>49.413014627713657</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>55.285872501631182</v>
+        <v>69.148584780537959</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12442,27 +12450,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>889818.85548370017</v>
+        <v>1058520.293939274</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.538452553627849</v>
+        <v>49.413759593740323</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.868767710150408</v>
+        <v>58.133834816165091</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.868767710150408</v>
+        <v>58.133834816165091</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.868767710150408</v>
+        <v>58.133834816165091</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>65.068600105791575</v>
+        <v>81.352502689621488</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12503,27 +12511,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>822929.02332125907</v>
+        <v>979124.48959862965</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.415906765261383</v>
+        <v>45.707411013648468</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.195184429719276</v>
+        <v>53.773424721939378</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.195184429719276</v>
+        <v>53.773424721939378</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.195184429719276</v>
+        <v>53.773424721939378</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>60.177236303711382</v>
+        <v>75.250543735079731</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26E119A-317A-42E7-B482-53347D702CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0253D373-4710-4CF9-959E-4F5A345FA7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -937,6 +937,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3584,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3606,7 +3610,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3614,7 +3618,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3638,7 +3642,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3647,7 +3651,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3663,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3706,7 +3710,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3714,7 +3718,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3723,7 +3727,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3732,7 +3736,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3741,7 +3745,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3750,7 +3754,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3759,7 +3763,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4170,7 +4174,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5652350696216156E-2</v>
+        <v>8.5768360376518374E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4592,7 +4596,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4907,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.45</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4948,7 +4952,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1355610.4828279002</v>
+        <v>1353789.6494056999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4997,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766067186991377</v>
+        <v>7.7766799926757813</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5018,7 +5022,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5029,7 +5033,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5056,7 +5060,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5180,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.815259937125166</v>
+        <v>17.791163141981432</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5212,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3716992591087637E-2</v>
+        <v>6.3803292475214879E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5242,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>49.413759593740323</v>
+        <v>49.434273442963303</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>93.555378093064704</v>
+        <v>93.594217091270437</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>58.133834816165091</v>
+        <v>58.157968756427415</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>81.352502689621488</v>
+        <v>81.386275731539513</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5290,8 +5294,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6317,12 +6321,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8748,118 +8752,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="e">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8867,107 +8872,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.0874830030000551</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>3.1778092554110788</v>
-      </c>
-      <c r="E55" s="153">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>4.3138244989796455</v>
-      </c>
-      <c r="F55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.0874830030000551</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>3.1778092554110788</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>4.3138244989796455</v>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9535,7 +9587,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10218,6 +10272,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12127,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6131653623313245E-2</v>
+        <v>5.6207679735133236E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6131653623313293E-2</v>
+        <v>5.6207679735133284E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6131653623313293E-2</v>
+        <v>5.6207679735133284E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12178,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5652350696216156E-2</v>
+        <v>8.5768360376518374E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3716992591087637E-2</v>
+        <v>6.3803292475214879E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3716992591087637E-2</v>
+        <v>6.3803292475214879E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12248,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>99.387222127494468</v>
+        <v>99.423936246461622</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>99.387222127494468</v>
+        <v>99.423936246461622</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12276,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.92790649443135</v>
+        <v>116.97644846864068</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.92790649443135</v>
+        <v>116.97644846864068</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12326,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>899728.68525798526</v>
+        <v>900061.04937161691</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>49.413014627713657</v>
+        <v>49.4312680335211</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>49.413014627713657</v>
+        <v>49.4312680335211</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>69.148584780537959</v>
+        <v>69.174128601098587</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12389,27 +12444,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>899728.68525798526</v>
+        <v>900061.04937161691</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>42.001062433556605</v>
+        <v>42.016577828492935</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>49.413014627713657</v>
+        <v>49.4312680335211</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>49.413014627713657</v>
+        <v>49.4312680335211</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>49.413014627713657</v>
+        <v>49.4312680335211</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>69.148584780537959</v>
+        <v>69.174128601098587</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12450,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1058520.293939274</v>
+        <v>1058959.7327896641</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.413759593740323</v>
+        <v>49.434273442963303</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>58.133834816165091</v>
+        <v>58.157968756427415</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>58.133834816165091</v>
+        <v>58.157968756427415</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>58.133834816165091</v>
+        <v>58.157968756427415</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>81.352502689621488</v>
+        <v>81.386275731539513</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12511,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>979124.48959862965</v>
+        <v>979510.39108064049</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>45.707411013648468</v>
+        <v>45.725425635728115</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>53.773424721939378</v>
+        <v>53.794618394974258</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>53.773424721939378</v>
+        <v>53.794618394974258</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>53.773424721939378</v>
+        <v>53.794618394974258</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>75.250543735079731</v>
+        <v>75.280202166319043</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0253D373-4710-4CF9-959E-4F5A345FA7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD3D70C-5E0D-47AD-9C63-863EB651E3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5768360376518374E-2</v>
+        <v>8.5704033648241362E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.349999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1353789.6494056999</v>
+        <v>1354700.0661168001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766799926757813</v>
+        <v>7.7760732968648272</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.791163141981432</v>
+        <v>17.804516624524197</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3803292475214879E-2</v>
+        <v>6.3755439665155164E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>49.434273442963303</v>
+        <v>49.419300256896257</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>93.594217091270437</v>
+        <v>93.5658682650472</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>58.157968756427415</v>
+        <v>58.140353243407361</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>81.386275731539513</v>
+        <v>81.361624578301914</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10312,8 +10312,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12182,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6207679735133236E-2</v>
+        <v>5.6165523675188407E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6207679735133284E-2</v>
+        <v>5.6165523675188449E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6207679735133284E-2</v>
+        <v>5.6165523675188449E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5768360376518374E-2</v>
+        <v>8.5704033648241362E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3803292475214879E-2</v>
+        <v>6.3755439665155164E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3803292475214879E-2</v>
+        <v>6.3755439665155164E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12303,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>99.423936246461622</v>
+        <v>99.39634147394392</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>99.423936246461622</v>
+        <v>99.39634147394392</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.97644846864068</v>
+        <v>116.94101737991629</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.97644846864068</v>
+        <v>116.94101737991629</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>900061.04937161691</v>
+        <v>899811.24051424186</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>49.4312680335211</v>
+        <v>49.417548554609446</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>49.4312680335211</v>
+        <v>49.417548554609446</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>69.174128601098587</v>
+        <v>69.154929558947146</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12404,7 +12404,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12443,28 +12443,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>900061.04937161691</v>
+        <f>C97+C98+$C$99</f>
+        <v>899811.24051424186</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>42.016577828492935</v>
+        <v>42.004916271418026</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>49.4312680335211</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>49.417548554609446</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>49.4312680335211</v>
+        <v>49.417548554609446</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>49.4312680335211</v>
+        <v>49.417548554609446</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>69.174128601098587</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>69.154929558947146</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1058959.7327896641</v>
+        <v>1058638.9836411029</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.434273442963303</v>
+        <v>49.419300256896257</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>58.157968756427415</v>
+        <v>58.140353243407361</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>58.157968756427415</v>
+        <v>58.140353243407361</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>58.157968756427415</v>
+        <v>58.140353243407361</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>81.386275731539513</v>
+        <v>81.361624578301914</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>979510.39108064049</v>
+        <v>979225.1120776725</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>45.725425635728115</v>
+        <v>45.712108264157138</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>53.794618394974258</v>
+        <v>53.778950899008407</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>53.794618394974258</v>
+        <v>53.778950899008407</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>53.794618394974258</v>
+        <v>53.778950899008407</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>75.280202166319043</v>
+        <v>75.258277068624523</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD3D70C-5E0D-47AD-9C63-863EB651E3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E038AE-845B-4EC3-8FCE-D19B8434C4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5704033648241362E-2</v>
+        <v>8.5460121147967111E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.400000000000006</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1354700.0661168001</v>
+        <v>1358341.7329611999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7760732968648272</v>
+        <v>7.7747866312662763</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.804516624524197</v>
+        <v>17.855332655530553</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3755439665155164E-2</v>
+        <v>6.3573992561292605E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>49.419300256896257</v>
+        <v>49.368996661630995</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>93.5658682650472</v>
+        <v>93.470628155547857</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>58.140353243407361</v>
+        <v>58.081172543095292</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>81.361624578301914</v>
+        <v>81.278807091780749</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12182,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6165523675188407E-2</v>
+        <v>5.6005677367778242E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6165523675188449E-2</v>
+        <v>5.6005677367778291E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6165523675188449E-2</v>
+        <v>5.6005677367778291E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5704033648241362E-2</v>
+        <v>8.5460121147967111E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3755439665155164E-2</v>
+        <v>6.3573992561292605E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3755439665155164E-2</v>
+        <v>6.3573992561292605E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12303,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>99.39634147394392</v>
+        <v>99.304713957251593</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>99.39634147394392</v>
+        <v>99.304713957251593</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.94101737991629</v>
+        <v>116.82198385298233</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.94101737991629</v>
+        <v>116.82198385298233</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>899811.24051424186</v>
+        <v>898981.7585812296</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>49.417548554609446</v>
+        <v>49.371993484996871</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>49.417548554609446</v>
+        <v>49.371993484996871</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>69.154929558947146</v>
+        <v>69.091179783366314</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,27 +12444,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>899811.24051424186</v>
+        <v>898981.7585812296</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>42.004916271418026</v>
+        <v>41.966194462247337</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>49.417548554609446</v>
+        <v>49.371993484996871</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>49.417548554609446</v>
+        <v>49.371993484996871</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>49.417548554609446</v>
+        <v>49.371993484996871</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>69.154929558947146</v>
+        <v>69.091179783366314</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1058638.9836411029</v>
+        <v>1057561.4016703288</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.419300256896257</v>
+        <v>49.368996661630995</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>58.140353243407361</v>
+        <v>58.081172543095292</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>58.140353243407361</v>
+        <v>58.081172543095292</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>58.140353243407361</v>
+        <v>58.081172543095292</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>81.361624578301914</v>
+        <v>81.278807091780749</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>979225.1120776725</v>
+        <v>978271.58012577915</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>45.712108264157138</v>
+        <v>45.667595561939166</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>53.778950899008407</v>
+        <v>53.726583014046085</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>53.778950899008407</v>
+        <v>53.726583014046085</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>53.778950899008407</v>
+        <v>53.726583014046085</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>75.258277068624523</v>
+        <v>75.184993437573524</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E038AE-845B-4EC3-8FCE-D19B8434C4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A66609F-0FF8-4FD9-96A7-403D14F1B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5460121147967111E-2</v>
+        <v>8.5458070023769359E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747866312662763</v>
+        <v>7.7746000289916992</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5047,10 +5047,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5097,7 +5097,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.855332655530553</v>
+        <v>17.855761210784127</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3573992561292605E-2</v>
+        <v>6.3572466724999152E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>49.368996661630995</v>
+        <v>44.990549021564334</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>93.470628155547857</v>
+        <v>83.083418266764028</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>58.081172543095292</v>
+        <v>52.930057672428632</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>81.278807091780749</v>
+        <v>72.246450666751329</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12182,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6005677367778242E-2</v>
+        <v>5.6004333178248454E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6005677367778291E-2</v>
+        <v>5.6004333178248503E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6005677367778291E-2</v>
+        <v>5.6004333178248503E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5460121147967111E-2</v>
+        <v>8.5458070023769359E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3573992561292605E-2</v>
+        <v>6.3572466724999152E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3573992561292605E-2</v>
+        <v>6.3572466724999152E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12303,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>99.304713957251593</v>
+        <v>90.497630423505257</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>99.304713957251593</v>
+        <v>90.497630423505257</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.82198385298233</v>
+        <v>106.46125193422881</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.82198385298233</v>
+        <v>106.46125193422881</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>898981.7585812296</v>
+        <v>819253.34360842837</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>49.371993484996871</v>
+        <v>44.993316446189539</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>49.371993484996871</v>
+        <v>44.993316446189539</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>69.091179783366314</v>
+        <v>61.413260440417233</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,27 +12444,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>898981.7585812296</v>
+        <v>819253.34360842837</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>41.966194462247337</v>
+        <v>38.244318979261109</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>49.371993484996871</v>
+        <v>44.993316446189539</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>49.371993484996871</v>
+        <v>44.993316446189539</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>49.371993484996871</v>
+        <v>44.993316446189539</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>69.091179783366314</v>
+        <v>61.413260440417233</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1057561.4016703288</v>
+        <v>963768.18048931588</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.368996661630995</v>
+        <v>44.990549021564334</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>58.081172543095292</v>
+        <v>52.930057672428632</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>58.081172543095292</v>
+        <v>52.930057672428632</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>58.081172543095292</v>
+        <v>52.930057672428632</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>81.278807091780749</v>
+        <v>72.246450666751329</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>978271.58012577915</v>
+        <v>891510.76204887219</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>45.667595561939166</v>
+        <v>41.617434000412722</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>53.726583014046085</v>
+        <v>48.961687059309085</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>53.726583014046085</v>
+        <v>48.961687059309085</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>53.726583014046085</v>
+        <v>48.961687059309085</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>75.184993437573524</v>
+        <v>66.829855553584281</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A66609F-0FF8-4FD9-96A7-403D14F1B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B503D0D-2BDF-46A5-B631-4707F159E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4174,7 +4185,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5458070023769359E-2</v>
+        <v>8.5290167137664824E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4911,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.599999999999994</v>
+        <v>74.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4952,7 +4963,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1358341.7329611999</v>
+        <v>1361072.9830944999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5001,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7746000289916992</v>
+        <v>7.7749268213907881</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5184,7 +5195,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.855761210784127</v>
+        <v>17.890912201120969</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5216,7 +5227,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3572466724999152E-2</v>
+        <v>6.3447563358506764E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,20 +5257,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>44.990549021564334</v>
+        <v>44.96602731472219</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>83.083418266764028</v>
+        <v>83.038134373357778</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>52.930057672428632</v>
+        <v>52.901208605555517</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>72.246450666751329</v>
+        <v>72.207073368137202</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12182,17 +12193,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6004333178248454E-2</v>
+        <v>5.5894299226248695E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6004333178248503E-2</v>
+        <v>5.5894299226248743E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6004333178248503E-2</v>
+        <v>5.5894299226248743E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12244,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5458070023769359E-2</v>
+        <v>8.5290167137664824E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3572466724999152E-2</v>
+        <v>6.3447563358506764E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3572466724999152E-2</v>
+        <v>6.3447563358506764E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12303,14 +12314,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.497630423505257</v>
+        <v>90.454293647048246</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.497630423505257</v>
+        <v>90.454293647048246</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12342,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.46125193422881</v>
+        <v>106.40322615622091</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.46125193422881</v>
+        <v>106.40322615622091</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12392,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>819253.34360842837</v>
+        <v>818861.02616489469</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.993316446189539</v>
+        <v>44.971770409152292</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.993316446189539</v>
+        <v>44.971770409152292</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.413260440417233</v>
+        <v>61.383851352833965</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,27 +12455,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>819253.34360842837</v>
+        <v>818861.02616489469</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>38.244318979261109</v>
+        <v>38.22600484777945</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>44.993316446189539</v>
+        <v>44.971770409152292</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>44.993316446189539</v>
+        <v>44.971770409152292</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>44.993316446189539</v>
+        <v>44.971770409152292</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>61.413260440417233</v>
+        <v>61.383851352833965</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12516,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>963768.18048931588</v>
+        <v>963242.88703769736</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>44.990549021564334</v>
+        <v>44.96602731472219</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>52.930057672428632</v>
+        <v>52.901208605555517</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>52.930057672428632</v>
+        <v>52.901208605555517</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>52.930057672428632</v>
+        <v>52.901208605555517</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>72.246450666751329</v>
+        <v>72.207073368137202</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12577,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>891510.76204887219</v>
+        <v>891051.95660129597</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>41.617434000412722</v>
+        <v>41.596016081250824</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>48.961687059309085</v>
+        <v>48.936489507353905</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>48.961687059309085</v>
+        <v>48.936489507353905</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>48.961687059309085</v>
+        <v>48.936489507353905</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.829855553584281</v>
+        <v>66.795462360485587</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B503D0D-2BDF-46A5-B631-4707F159E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6619393C-6826-47DB-8CD6-7C0C3D00CE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -911,10 +894,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -952,6 +931,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1543,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2183,6 +2198,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3613,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3650,24 +3675,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>18208334222</v>
@@ -3675,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3699,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3707,80 +3732,80 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3851,7 +3876,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>3771</v>
@@ -3873,7 +3898,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>32070</v>
@@ -3895,7 +3920,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3911,7 +3936,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C29" s="150">
         <v>65072</v>
@@ -3933,7 +3958,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>2127</v>
@@ -3955,7 +3980,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3971,7 +3996,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3987,7 +4012,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4019,7 +4044,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4035,7 +4060,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4067,7 +4092,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4115,7 +4140,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4131,7 +4156,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4147,7 +4172,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4163,7 +4188,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.82</v>
@@ -4181,11 +4206,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5290167137664824E-2</v>
+        <v>8.5401967477255508E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4230,21 +4255,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4254,7 +4279,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4264,7 +4289,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4275,7 +4300,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4285,7 +4310,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4295,7 +4320,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4306,7 +4331,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4316,7 +4341,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4327,7 +4352,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4335,24 +4360,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4363,7 +4388,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4374,7 +4399,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4385,7 +4410,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4396,7 +4421,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4407,7 +4432,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4418,7 +4443,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4428,31 +4453,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4460,12 +4485,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4476,7 +4501,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4487,7 +4512,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4497,7 +4522,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4508,7 +4533,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4518,25 +4543,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4548,55 +4573,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4604,10 +4629,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4615,18 +4640,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4635,20 +4660,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4666,7 +4691,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4687,7 +4712,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4708,7 +4733,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4726,7 +4751,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4747,7 +4772,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4765,7 +4790,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4783,7 +4808,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4910,62 +4935,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.75</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>18208334222</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>1361072.9830944999</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>1359252.1496723001</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4988,16 +5013,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5012,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7749268213907881</v>
+        <v>7.7747035026550293</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5022,40 +5047,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5068,29 +5093,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5100,12 +5125,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5115,29 +5140,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>3.237354486453075E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5145,7 +5170,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5156,26 +5181,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>2.3869305285384647E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5184,30 +5209,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.55863466227121317</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.890912201120969</v>
+        <v>17.867491077243407</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5216,18 +5241,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.10980570587494648</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3447563358506764E-2</v>
+        <v>6.3530731903812018E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,62 +5262,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>44.96602731472219</v>
+        <v>44.982321188819334</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>83.038134373357778</v>
+        <v>83.068224042993734</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>52.901208605555517</v>
-      </c>
-      <c r="G29" s="274">
+        <v>52.920377869199221</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>72.207073368137202</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>72.233238298255429</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5302,25 +5327,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5330,7 +5355,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5340,14 +5365,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5357,7 +5382,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5372,14 +5397,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6332,12 +6357,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6364,16 +6389,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6391,7 +6416,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6424,7 +6449,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6435,7 +6460,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6587,7 +6612,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6638,7 +6663,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6689,7 +6714,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6740,7 +6765,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6791,7 +6816,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6842,7 +6867,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6893,7 +6918,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6944,7 +6969,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6995,7 +7020,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7046,7 +7071,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7097,7 +7122,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7148,7 +7173,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7199,7 +7224,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7250,7 +7275,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7301,7 +7326,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7352,7 +7377,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7403,7 +7428,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7454,7 +7479,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7505,7 +7530,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7658,7 +7683,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7709,7 +7734,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7811,7 +7836,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8015,7 +8040,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8066,7 +8091,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8117,7 +8142,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8168,7 +8193,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8219,7 +8244,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8270,7 +8295,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8288,7 +8313,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8339,7 +8364,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8390,7 +8415,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8441,7 +8466,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8492,7 +8517,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8543,7 +8568,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8594,7 +8619,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8645,7 +8670,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8662,50 +8687,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8714,10 +8739,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8765,167 +8790,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8933,112 +8959,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.0874830030000551</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>3.1778092554110788</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>4.3138244989796455</v>
-      </c>
-      <c r="F56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.0874830030000551</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>3.1778092554110788</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>4.3138244989796455</v>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9601,7 +9817,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10284,6 +10502,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10323,8 +10542,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10342,7 +10561,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10357,7 +10576,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10371,7 +10590,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10381,7 +10600,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10399,10 +10618,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10411,12 +10630,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10426,7 +10646,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10436,8 +10656,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10449,7 +10670,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10467,7 +10688,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10486,32 +10707,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10528,7 +10749,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10539,7 +10760,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10556,7 +10777,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10567,7 +10788,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10584,7 +10805,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10595,7 +10816,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10612,7 +10833,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10623,7 +10844,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10640,7 +10861,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10650,7 +10871,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10672,7 +10893,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10694,7 +10915,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10715,7 +10936,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10740,7 +10961,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10767,7 +10988,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10788,7 +11009,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10805,7 +11026,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10817,13 +11038,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10845,7 +11066,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10865,7 +11086,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10874,7 +11095,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10894,7 +11115,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10907,7 +11128,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10927,7 +11148,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10973,7 +11194,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10982,7 +11203,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10998,7 +11219,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11008,7 +11229,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11025,7 +11246,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11035,7 +11256,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11052,7 +11273,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11062,7 +11283,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11082,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11092,7 +11313,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11109,7 +11330,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11119,7 +11340,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11145,7 +11366,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11172,7 +11393,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11199,7 +11420,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11220,7 +11441,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11241,7 +11462,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11262,7 +11483,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11283,7 +11504,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11300,7 +11521,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11318,7 +11539,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11337,7 +11558,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11356,7 +11577,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11373,7 +11594,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11386,7 +11607,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11403,7 +11624,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11416,7 +11637,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11433,7 +11654,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11460,7 +11681,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11476,14 +11697,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11500,7 +11721,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11530,7 +11751,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11541,14 +11762,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11556,30 +11777,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11596,11 +11817,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11610,7 +11831,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11631,7 +11852,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11652,7 +11873,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11673,7 +11894,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11688,7 +11909,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11719,11 +11940,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11733,7 +11954,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11754,7 +11975,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11769,7 +11990,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11791,21 +12012,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11815,23 +12036,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11852,7 +12073,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11882,7 +12103,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11903,7 +12124,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11933,7 +12154,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11963,7 +12184,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11994,7 +12215,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12021,12 +12242,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12056,7 +12277,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12086,7 +12307,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12116,7 +12337,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12137,7 +12358,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12168,7 +12389,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12189,28 +12410,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5894299226248695E-2</v>
+        <v>5.5967566776828022E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5894299226248743E-2</v>
+        <v>5.5967566776828064E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5894299226248743E-2</v>
+        <v>5.5967566776828064E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12240,21 +12461,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5290167137664824E-2</v>
+        <v>8.5401967477255508E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3447563358506764E-2</v>
+        <v>6.3530731903812018E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3447563358506764E-2</v>
+        <v>6.3530731903812018E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12271,29 +12492,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12310,24 +12531,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.454293647048246</v>
+        <v>90.483081696242806</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.454293647048246</v>
+        <v>90.483081696242806</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12338,18 +12559,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.40322615622091</v>
+        <v>106.44178239242976</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.40322615622091</v>
+        <v>106.44178239242976</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12368,51 +12589,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>818861.02616489469</v>
+        <v>819121.63746983407</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.971770409152292</v>
+        <v>44.986083157466446</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.971770409152292</v>
+        <v>44.986083157466446</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.383851352833965</v>
+        <v>61.403387421949624</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12430,7 +12651,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12451,31 +12672,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>818861.02616489469</v>
+        <v>819121.63746983407</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>38.22600484777945</v>
+        <v>38.238170683846477</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>44.971770409152292</v>
+        <v>44.986083157466446</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>44.971770409152292</v>
+        <v>44.986083157466446</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>44.971770409152292</v>
+        <v>44.986083157466446</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>61.383851352833965</v>
+        <v>61.403387421949624</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12485,58 +12706,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>963242.88703769736</v>
+        <v>963591.92739691166</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>44.96602731472219</v>
+        <v>44.982321188819334</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>52.901208605555517</v>
+        <v>52.920377869199221</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>52.901208605555517</v>
+        <v>52.920377869199221</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>52.901208605555517</v>
+        <v>52.920377869199221</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>72.207073368137202</v>
+        <v>72.233238298255429</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12546,58 +12767,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>891051.95660129597</v>
+        <v>891356.78243337281</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>41.596016081250824</v>
+        <v>41.610245936332902</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>48.936489507353905</v>
+        <v>48.953230513332834</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>48.936489507353905</v>
+        <v>48.953230513332834</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>48.936489507353905</v>
+        <v>48.953230513332834</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.795462360485587</v>
+        <v>66.818312860102523</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12606,7 +12827,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12615,6 +12836,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6619393C-6826-47DB-8CD6-7C0C3D00CE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2073BDED-408B-4DEA-8F8A-EC72141CAEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>- (CAPX - D&amp;A)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -950,10 +916,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -967,6 +929,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.237354486453075E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27531678170392498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3869305285384647E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55863466227121317</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10980570587494648</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>18208334222</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,60 +2909,60 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3936,7 +3099,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>65072</v>
@@ -4060,7 +3223,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4156,7 +3319,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4188,7 +3351,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.82</v>
@@ -4206,11 +3369,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5401967477255508E-2</v>
+        <v>8.5289691129788639E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4255,13 +3418,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4320,7 +3483,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4331,7 +3494,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4432,7 +3595,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4443,7 +3606,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4603,7 +3766,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4621,7 +3784,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4629,10 +3792,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4642,16 +3805,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4660,10 +3823,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4712,7 +3875,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4733,7 +3896,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4751,7 +3914,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4790,7 +3953,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4808,7 +3971,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4893,8 +4056,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4935,62 +4098,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.650000000000006</v>
+        <v>74.75</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>18208334222</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1359252.1496723001</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>1361072.9830944999</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5013,16 +4176,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5037,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747035026550293</v>
+        <v>7.7748834292093916</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5047,40 +4210,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5093,29 +4256,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5125,12 +4288,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5138,9 +4301,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5148,59 +4311,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>3.237354486453075E-2</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.27531678170392498</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>2.3869305285384647E-2</v>
+      <c r="B22" s="279" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.66844036814615959</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5209,30 +4372,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.55863466227121317</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.867491077243407</v>
+        <v>17.891012051583637</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5241,18 +4404,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.10980570587494648</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3530731903812018E-2</v>
+        <v>6.3447209255086678E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5262,62 +4425,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>44.982321188819334</v>
+        <v>44.965701494739989</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>83.068224042993734</v>
+        <v>83.037532686149035</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>52.920377869199221</v>
-      </c>
-      <c r="G29" s="278">
+        <v>52.900825287929401</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>72.233238298255429</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>72.206550161868734</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5327,7 +4490,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5338,14 +4501,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5355,7 +4518,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5365,14 +4528,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5382,7 +4545,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5397,14 +4560,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6348,7 +5511,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6362,7 +5524,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6389,16 +5551,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6416,7 +5578,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6449,7 +5611,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6816,7 +5978,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6867,7 +6029,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6918,7 +6080,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6969,7 +6131,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7071,7 +6233,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7224,7 +6386,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7734,7 +6896,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8244,7 +7406,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8295,7 +7457,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8364,7 +7526,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8568,7 +7730,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8670,7 +7832,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8688,14 +7850,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8739,7 +7901,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8790,7 +7952,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8841,7 +8003,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8892,7 +8054,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8909,7 +8071,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9109,7 +8271,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9159,7 +8321,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9209,7 +8371,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10713,7 +9875,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10871,7 +10033,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11283,7 +10445,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11751,7 +10913,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11765,11 +10927,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11780,11 +10942,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11796,11 +10958,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11817,7 +10979,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11894,7 +11056,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11940,7 +11102,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11975,7 +11137,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12014,19 +11176,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12036,18 +11198,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12124,7 +11286,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12154,7 +11316,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12184,7 +11346,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12247,7 +11409,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12277,7 +11439,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12358,7 +11520,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12389,7 +11551,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12410,28 +11572,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5967566776828022E-2</v>
+        <v>5.5893987277901555E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5967566776828064E-2</v>
+        <v>5.5893987277901604E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5967566776828064E-2</v>
+        <v>5.5893987277901604E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12461,21 +11623,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5401967477255508E-2</v>
+        <v>8.5289691129788639E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3530731903812018E-2</v>
+        <v>6.3447209255086678E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3530731903812018E-2</v>
+        <v>6.3447209255086678E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12497,24 +11659,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12531,24 +11693,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.483081696242806</v>
+        <v>90.453655201884359</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.483081696242806</v>
+        <v>90.453655201884359</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12559,18 +11721,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.44178239242976</v>
+        <v>106.40245516755853</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.44178239242976</v>
+        <v>106.40245516755853</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12589,14 +11751,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12613,21 +11775,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>819121.63746983407</v>
+        <v>818855.24647394824</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.986083157466446</v>
+        <v>44.971452989070045</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.986083157466446</v>
+        <v>44.971452989070045</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.403387421949624</v>
+        <v>61.383418092880717</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12676,27 +11838,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>819121.63746983407</v>
+        <v>818855.24647394824</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>38.238170683846477</v>
+        <v>38.225735040709537</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>44.986083157466446</v>
+        <v>44.971452989070045</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>44.986083157466446</v>
+        <v>44.971452989070045</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>44.986083157466446</v>
+        <v>44.971452989070045</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>61.403387421949624</v>
+        <v>61.383418092880717</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12706,21 +11868,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12733,31 +11895,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>963591.92739691166</v>
+        <v>963235.90746224788</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>44.982321188819334</v>
+        <v>44.965701494739989</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>52.920377869199221</v>
+        <v>52.900825287929401</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>52.920377869199221</v>
+        <v>52.900825287929401</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>52.920377869199221</v>
+        <v>52.900825287929401</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>72.233238298255429</v>
+        <v>72.206550161868734</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12767,21 +11929,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12794,31 +11956,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>891356.78243337281</v>
+        <v>891045.57696809818</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>41.610245936332902</v>
+        <v>41.595718267724763</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>48.953230513332834</v>
+        <v>48.936139138499726</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>48.953230513332834</v>
+        <v>48.936139138499726</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>48.953230513332834</v>
+        <v>48.936139138499726</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.818312860102523</v>
+        <v>66.794984127374732</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12827,7 +11989,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2073BDED-408B-4DEA-8F8A-EC72141CAEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDB1AC4-4021-48EE-AC95-981BB5A587D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -900,10 +896,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,6 +957,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>18208334222</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,66 +2929,66 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3099,7 +3119,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="150">
         <v>65072</v>
@@ -3189,9 +3209,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3207,7 +3227,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3223,7 +3243,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3238,10 +3258,13 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150">
+        <v>2784589</v>
+      </c>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3253,9 +3276,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3302,10 +3325,13 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150">
+        <v>190414</v>
+      </c>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3319,9 +3345,11 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150">
+        <v>7121</v>
+      </c>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3335,7 +3363,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3351,7 +3379,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.82</v>
@@ -3369,11 +3397,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5289691129788639E-2</v>
+        <v>8.4999196879069011E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3418,13 +3446,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3442,7 +3470,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3452,7 +3480,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3483,7 +3511,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3494,7 +3522,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3528,7 +3556,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3595,7 +3623,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3606,7 +3634,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3653,7 +3681,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3766,7 +3794,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3784,7 +3812,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3792,10 +3820,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3803,7 +3831,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3811,10 +3839,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3836,7 +3864,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3875,7 +3903,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3896,7 +3924,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3914,7 +3942,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3953,7 +3981,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3971,7 +3999,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3993,28 +4021,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4056,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4098,7 +4131,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4110,15 +4143,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.75</v>
+        <v>75</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4138,7 +4171,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4151,7 +4184,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1361072.9830944999</v>
+        <v>1365625.0666499999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4185,7 +4218,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4200,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7748834292093916</v>
+        <v>7.7743167877197266</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4210,40 +4243,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4256,29 +4289,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4288,12 +4321,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4303,7 +4336,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4311,21 +4344,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="276" t="e">
+        <v>249</v>
+      </c>
+      <c r="C20" s="276">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.42479858937950304</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4333,69 +4366,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
-        <v>#DIV/0!</v>
+        <v>247</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C53</f>
+        <v>6.161103030820473E-2</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
-        <v>#DIV/0!</v>
+        <v>254</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C48</f>
+        <v>3.9154246231012206E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.66844036814615959</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>0.92250848689962683</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.55863466227121317</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.891012051583637</v>
+        <v>17.952156583901218</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4404,18 +4437,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3447209255086678E-2</v>
+        <v>6.3231109873453775E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4425,40 +4458,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>44.965701494739989</v>
+        <v>44.916759627104241</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>83.037532686149035</v>
+        <v>82.947152423005562</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>52.900825287929401</v>
+        <v>52.843246620122635</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>72.206550161868734</v>
+        <v>72.127958628700497</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4466,21 +4499,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4490,25 +4523,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4518,7 +4551,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4528,14 +4561,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4545,7 +4578,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4560,14 +4593,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5467,27 +5500,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5519,12 +5552,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5551,16 +5584,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5578,7 +5611,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5611,7 +5644,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5622,7 +5655,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5978,7 +6011,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6029,7 +6062,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6080,7 +6113,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6131,7 +6164,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6233,7 +6266,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6386,7 +6419,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6641,7 +6674,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6692,7 +6725,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6746,15 +6779,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>0</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>2975003</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6794,50 +6827,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6845,50 +6878,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6896,101 +6929,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>0</v>
+        <f>Inputs!C37</f>
+        <v>2784589</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6998,101 +7031,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7100,50 +7133,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>0</v>
+        <f>Inputs!C41</f>
+        <v>190414</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7151,50 +7184,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>7121</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7202,50 +7235,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7253,272 +7286,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>3.237354486453075E-2</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>4.9359823399558501E-2</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>6.9673059498640888E-2</v>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.27531678170392498</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.48125091979396617</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.65350347327091518</v>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>3.237354486453075E-2</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>4.9359823399558501E-2</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>6.9673059498640888E-2</v>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7526,50 +7559,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.27531678170392498</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>0.55863466227121317</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.48125091979396617</v>
+        <f t="shared" si="37"/>
+        <v>0.33037527593818983</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.65350347327091518</v>
+        <f t="shared" si="37"/>
+        <v>0.18308290546662639</v>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7577,50 +7610,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>3.5050763008171136E-2</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>5.1299589603283173E-2</v>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7628,50 +7661,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>0.55863466227121317</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.33037527593818983</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.18308290546662639</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7679,221 +7712,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>2.3869305285384647E-2</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.10980570587494642</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>3.5050763008171136E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.10396321786011437</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>5.1299589603283173E-2</v>
+        <f t="shared" si="40"/>
+        <v>4.2440972160534399E-2</v>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.10980570587494642</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.10396321786011437</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>4.2440972160534399E-2</v>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="272">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>3.9154246231012206E-2</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7901,522 +7934,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <v>243</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="156">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>6.161103030820473E-2</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.0874830030000551</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>3.1778092554110788</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>4.3138244989796455</v>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.0874830030000551</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>3.1778092554110788</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>4.3138244989796455</v>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="274">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>0.4247985893795031</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>6.978230397853305E-2</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8976,12 +8913,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9663,27 +9596,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9875,7 +9811,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9922,7 +9858,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9950,7 +9886,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10033,7 +9969,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10055,7 +9991,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10123,7 +10059,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10445,7 +10381,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10582,7 +10518,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10913,7 +10849,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10979,7 +10915,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11014,7 +10950,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11035,7 +10971,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11056,7 +10992,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11071,7 +11007,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11102,7 +11038,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11116,7 +11052,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11137,7 +11073,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11152,7 +11088,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11174,7 +11110,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11182,11 +11118,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11214,7 +11150,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11286,7 +11222,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11316,7 +11252,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11346,7 +11282,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11404,12 +11340,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11439,7 +11375,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11469,7 +11405,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11520,7 +11456,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11551,7 +11487,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11572,28 +11508,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5893987277901555E-2</v>
+        <v>5.5703613954479404E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5893987277901604E-2</v>
+        <v>5.5703613954479453E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5893987277901604E-2</v>
+        <v>5.5703613954479453E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11623,21 +11559,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5289691129788639E-2</v>
+        <v>8.4999196879069011E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3447209255086678E-2</v>
+        <v>6.3231109873453775E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3447209255086678E-2</v>
+        <v>6.3231109873453775E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11654,27 +11590,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11693,24 +11629,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.453655201884359</v>
+        <v>90.365556083834605</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.453655201884359</v>
+        <v>90.365556083834605</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11721,18 +11657,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.40245516755853</v>
+        <v>106.28664390021871</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.40245516755853</v>
+        <v>106.28664390021871</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11751,14 +11687,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11771,31 +11707,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>818855.24647394824</v>
+        <v>818057.70628760918</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.971452989070045</v>
+        <v>44.927652157175409</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.971452989070045</v>
+        <v>44.927652157175409</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.383418092880717</v>
+        <v>61.323632504506293</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11813,7 +11749,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11838,27 +11774,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>818855.24647394824</v>
+        <v>818057.70628760918</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>38.225735040709537</v>
+        <v>38.188504333599099</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>44.971452989070045</v>
+        <v>44.927652157175409</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>44.971452989070045</v>
+        <v>44.927652157175409</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>44.971452989070045</v>
+        <v>44.927652157175409</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>61.383418092880717</v>
+        <v>61.323632504506293</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11868,21 +11804,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11895,31 +11831,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>963235.90746224788</v>
+        <v>962187.49583476479</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>44.965701494739989</v>
+        <v>44.916759627104241</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>52.900825287929401</v>
+        <v>52.843246620122635</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>52.900825287929401</v>
+        <v>52.843246620122635</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>52.900825287929401</v>
+        <v>52.843246620122635</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>72.206550161868734</v>
+        <v>72.127958628700497</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11929,21 +11865,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11956,31 +11892,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>891045.57696809818</v>
+        <v>890122.60106118699</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>41.595718267724763</v>
+        <v>41.55263198035167</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>48.936139138499726</v>
+        <v>48.885449388649022</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>48.936139138499726</v>
+        <v>48.885449388649022</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>48.936139138499726</v>
+        <v>48.885449388649022</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>66.794984127374732</v>
+        <v>66.725795566603395</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11989,7 +11925,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDB1AC4-4021-48EE-AC95-981BB5A587D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63CABED-C455-4F2B-8933-CD8CD82B1B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="Fin_Analysis" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -936,10 +935,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -972,6 +967,22 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0005.HK</t>
   </si>
   <si>
@@ -997,6 +1008,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Pessimistic Case</t>
   </si>
   <si>
     <t>HKD</t>
@@ -1911,7 +1925,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2160,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2360,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2604,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2605,6 +2619,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Inputs"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Data"/>
+      <sheetName val="Fin_Analysis"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="G3">
+            <v>74.75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2807,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2825,164 +2867,164 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>263</v>
+      <c r="C4" s="187" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>264</v>
+      <c r="C5" s="190" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>266</v>
+      <c r="C9" s="191" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>18208334222</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>267</v>
+      <c r="C11" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>269</v>
+      <c r="C19" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>269</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>270</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3039,419 +3081,454 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>116484</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>67950</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>52976</v>
       </c>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>3771</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>3354</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>3691</v>
       </c>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>32070</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>32701</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>34620</v>
       </c>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="150">
+        <v>237</v>
+      </c>
+      <c r="C29" s="149">
         <v>65072</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>22449</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>9699</v>
       </c>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>2127</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>1822</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>2079</v>
       </c>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>260</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214">
+        <v>2784589</v>
+      </c>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150">
-        <v>2784589</v>
-      </c>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>259</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214">
+        <v>190414</v>
+      </c>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214">
+        <v>7121</v>
+      </c>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150">
-        <v>190414</v>
-      </c>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150">
-        <v>7121</v>
-      </c>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214">
+        <f>IF(C42="","",C42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="149" t="str">
+        <f>IF(D42="","",D42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="E43" s="149" t="str">
+        <f>IF(E42="","",E42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="F43" s="149" t="str">
+        <f>IF(F42="","",F42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="G43" s="149" t="str">
+        <f>IF(G42="","",G42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="H43" s="149" t="str">
+        <f>IF(H42="","",H42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="I43" s="149" t="str">
+        <f>IF(I42="","",I42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="J43" s="149" t="str">
+        <f>IF(J42="","",J42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="K43" s="149" t="str">
+        <f>IF(K42="","",K42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="L43" s="149" t="str">
+        <f>IF(L42="","",L42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
+      <c r="M43" s="149" t="str">
+        <f>IF(M42="","",M42*Exchange_Rate/[1]Dashboard!$G$3)</f>
+        <v/>
+      </c>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
-        <v>0.82</v>
-      </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="C44" s="247"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="152">
+        <v>233</v>
+      </c>
+      <c r="C45" s="151" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4999196879069011E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v/>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3464,7 +3541,8 @@
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
-        <v>0.9</v>
+        <f>D49</f>
+        <v>0.6</v>
       </c>
       <c r="E48" s="112"/>
     </row>
@@ -3474,7 +3552,7 @@
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E49" s="112"/>
     </row>
@@ -3484,8 +3562,7 @@
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
-        <f>D51</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="112"/>
     </row>
@@ -3495,6 +3572,7 @@
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
+        <f>D48</f>
         <v>0.6</v>
       </c>
       <c r="E51" s="112"/>
@@ -3505,7 +3583,7 @@
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E52" s="112"/>
     </row>
@@ -3516,19 +3594,22 @@
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="112"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="E54" s="112"/>
+        <f>D48</f>
+        <v>0.6</v>
+      </c>
+      <c r="E54" s="112" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
@@ -3536,10 +3617,11 @@
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
-        <f>D52</f>
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="112"/>
+        <v>0.6</v>
+      </c>
+      <c r="E55" s="112" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
@@ -3547,12 +3629,10 @@
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
-        <f>D50</f>
-        <v>0.6</v>
-      </c>
-      <c r="E56" s="221" t="s">
-        <v>67</v>
-      </c>
+        <f>D46</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="218"/>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
@@ -3560,20 +3640,19 @@
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="E57" s="221" t="s">
-        <v>42</v>
-      </c>
+        <f>D68</f>
+        <v>0.05</v>
+      </c>
+      <c r="E57" s="218"/>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="59"/>
-      <c r="D58" s="60">
-        <f>D48</f>
-        <v>0.9</v>
+      <c r="D58" s="60" t="str">
+        <f>D47</f>
+        <v>Valued @</v>
       </c>
       <c r="E58" s="112"/>
     </row>
@@ -3581,10 +3660,10 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
-        <f>D70</f>
-        <v>0.05</v>
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
+        <f>D49</f>
+        <v>0.6</v>
       </c>
       <c r="E59" s="112"/>
     </row>
@@ -3594,8 +3673,8 @@
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
-        <f>D49</f>
-        <v>0.8</v>
+        <f>D50</f>
+        <v>0.5</v>
       </c>
       <c r="E60" s="112"/>
     </row>
@@ -3605,8 +3684,8 @@
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
-        <f>D51</f>
-        <v>0.6</v>
+        <f>D60</f>
+        <v>0.5</v>
       </c>
       <c r="E61" s="112"/>
     </row>
@@ -3616,8 +3695,7 @@
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
-        <f>D52</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E62" s="112"/>
     </row>
@@ -3627,20 +3705,23 @@
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
-        <f>D62</f>
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="112"/>
+        <v>0.1</v>
+      </c>
+      <c r="E63" s="112" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
-        <v>0.4</v>
-      </c>
-      <c r="E64" s="112"/>
+        <v>0.2</v>
+      </c>
+      <c r="E64" s="112" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
@@ -3648,10 +3729,11 @@
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
+        <f>D63</f>
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
-        <v>67</v>
+      <c r="E65" s="218" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3660,11 +3742,10 @@
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
-        <v>0.2</v>
-      </c>
-      <c r="E66" s="221" t="s">
-        <v>67</v>
-      </c>
+        <f>D63</f>
+        <v>0.1</v>
+      </c>
+      <c r="E66" s="218"/>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
@@ -3672,12 +3753,10 @@
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
-        <f>D65</f>
-        <v>0.1</v>
-      </c>
-      <c r="E67" s="221" t="s">
-        <v>42</v>
-      </c>
+        <f>D68</f>
+        <v>0.05</v>
+      </c>
+      <c r="E67" s="218"/>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
@@ -3685,8 +3764,7 @@
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
-        <f>D65</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E68" s="112"/>
     </row>
@@ -3696,8 +3774,8 @@
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
-        <f>D70</f>
-        <v>0.05</v>
+        <f>D56</f>
+        <v>0</v>
       </c>
       <c r="E69" s="112"/>
     </row>
@@ -3707,7 +3785,7 @@
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E70" s="112"/>
     </row>
@@ -3716,21 +3794,16 @@
         <v>71</v>
       </c>
       <c r="C71" s="59"/>
-      <c r="D71" s="60">
-        <f>D58</f>
-        <v>0.9</v>
-      </c>
+      <c r="D71" s="60"/>
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3754,7 +3827,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3784,49 +3857,56 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="59"/>
+      <c r="C84" s="59">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="59"/>
+      <c r="C85" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="197">
-        <v>5</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C86" s="196"/>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>271</v>
-      </c>
-      <c r="D87" s="269">
-        <v>0.02</v>
+        <v>230</v>
+      </c>
+      <c r="C87" s="233">
+        <f>C24</f>
+        <v>45291</v>
+      </c>
+      <c r="D87" s="266"/>
+      <c r="E87" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
@@ -3855,10 +3935,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3870,14 +3950,14 @@
         <f>C25</f>
         <v>116484</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
-        <f>C91</f>
-        <v>116484</v>
-      </c>
-      <c r="F91" s="251">
-        <f>C91</f>
-        <v>116484</v>
+      <c r="D91" s="206"/>
+      <c r="E91" s="248" t="e">
+        <f>E89*D91</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F91" s="248" t="e">
+        <f>F89*D91</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
@@ -3888,77 +3968,71 @@
         <f>C26</f>
         <v>3771</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>3.237354486453075E-2</v>
       </c>
-      <c r="E92" s="252">
-        <f>E91*D92</f>
-        <v>3771</v>
-      </c>
-      <c r="F92" s="252">
-        <f>F91*D92</f>
-        <v>3771</v>
+      <c r="E92" s="249"/>
+      <c r="F92" s="249" t="e">
+        <f>F89*D92</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>32070</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="E93" s="252">
-        <f>E91*D93</f>
-        <v>32069.999999999996</v>
-      </c>
-      <c r="F93" s="252">
-        <f>F91*D93</f>
-        <v>32069.999999999996</v>
+      <c r="E93" s="249" t="e">
+        <f>E89*D93</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F93" s="249" t="e">
+        <f>F89*D93</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>65072</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>0.55863466227121317</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
-        <f>F91*D94</f>
-        <v>65071.999999999993</v>
+      <c r="E94" s="250"/>
+      <c r="F94" s="249" t="e">
+        <f>F89*D94</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
-        <f>E91*D95</f>
-        <v>0</v>
-      </c>
-      <c r="F95" s="252">
-        <f>F91*D95</f>
-        <v>0</v>
+      <c r="E95" s="249"/>
+      <c r="F95" s="249" t="e">
+        <f>F89*D95</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
@@ -3969,14 +4043,16 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
-        <f>F91*D96</f>
-        <v>0</v>
+      <c r="E96" s="250">
+        <f>F96</f>
+        <v>0.61</v>
+      </c>
+      <c r="F96" s="249">
+        <v>0.61</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
@@ -3987,32 +4063,24 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2780.3921568627452</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>2.3869305285384647E-2</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
-        <f>F91*D97</f>
-        <v>2780.3921568627452</v>
-      </c>
+      <c r="E97" s="250"/>
+      <c r="F97" s="249"/>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
-        <v>0.82</v>
-      </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
-        <f>F98</f>
-        <v>0.61</v>
-      </c>
-      <c r="F98" s="254">
-        <v>0.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D98" s="263"/>
+      <c r="E98" s="251"/>
+      <c r="F98" s="251"/>
       <c r="G98" s="1"/>
     </row>
   </sheetData>
@@ -4090,7 +4158,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4142,11 +4210,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>75</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4184,7 +4252,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1365625.0666499999</v>
+        <v>1362893.8165167</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4194,11 +4262,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4220,11 +4288,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4232,8 +4300,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>7.7743167877197266</v>
+      <c r="G7" s="132">
+        <v>7.7740767796834307</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4242,10 +4310,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4253,7 +4321,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4261,13 +4329,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4276,12 +4344,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="174">
+        <v>234</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4291,7 +4359,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4302,7 +4370,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4310,13 +4378,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4326,129 +4394,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="175">
+        <v>235</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="276">
+      <c r="B20" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.42479858937950304</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="278">
+      <c r="B21" s="274" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
-        <v>6.161103030820473E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="280">
+      <c r="B22" s="276" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
-        <v>3.9154246231012206E-2</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.66844036814615959</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.92250848689962683</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="136" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="170" t="e">
+        <f>Fin_Analysis!I81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="265" t="e">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="170" t="e">
+        <f>Fin_Analysis!I80</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="170" t="e">
+        <f>Fin_Analysis!I88</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="137" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="171">
-        <f>Fin_Analysis!I81</f>
-        <v>0.55863466227121317</v>
-      </c>
-      <c r="F24" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="268">
-        <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.952156583901218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="171">
-        <f>Fin_Analysis!I88</f>
-        <v>1.1351347854221043</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="C26" s="170" t="e">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="141" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3231109873453775E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4465,10 +4533,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4476,22 +4544,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>44.916759627104241</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="128" t="e">
         <f>G29*(1+G20)</f>
-        <v>82.947152423005562</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>52.843246620122635</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>72.127958628700497</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4499,23 +4567,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4523,9 +4591,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4533,17 +4601,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4551,26 +4619,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4578,9 +4646,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -4593,16 +4661,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5554,10 +5622,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5583,16 +5651,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5606,11 +5674,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5635,7 +5703,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5643,7 +5711,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5707,47 +5775,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>116484</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>67950</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>52976</v>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5809,47 +5877,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>3771</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>3354</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>3691</v>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5860,47 +5928,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>112713</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>64596</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>49285</v>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5911,47 +5979,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>32070</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>32701</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>34620</v>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5962,47 +6030,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6011,49 +6079,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2780.3921568627452</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2381.6993464052289</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2717.6470588235293</v>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6061,50 +6129,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.66844036814615959</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.43433849379830419</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.22552387762716081</v>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6112,50 +6180,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>77862.607843137259</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>29513.300653594772</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>11947.35294117647</v>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6163,50 +6231,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>1.6382209417045821</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>1.4702794668329739</v>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6217,47 +6285,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6266,49 +6334,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="199">
+        <v>237</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>65072</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>22449</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>9699</v>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6319,47 +6387,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6370,47 +6438,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6419,49 +6487,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6472,47 +6540,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6523,47 +6591,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>12790.607843137259</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>7064.3006535947716</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>2248.3529411764703</v>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6574,47 +6642,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>8.4001364994333999E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>7.9531861662987494E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>3.2467343702808814E-2</v>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6625,7 +6693,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>9784.8150000000023</v>
       </c>
@@ -6673,50 +6741,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.81059788793510246</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>2.1419891976116148</v>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6780,7 +6848,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>2975003</v>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6833,43 +6901,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6884,43 +6952,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6929,49 +6997,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>2784589</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>0</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6986,43 +7054,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7037,43 +7105,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7137,45 +7205,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>190414</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>0</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7188,45 +7256,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>7121</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>0</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7239,45 +7307,45 @@
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="199" t="str">
+        <v>7121</v>
+      </c>
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7339,47 +7407,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7388,7 +7456,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7408,47 +7476,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>3.237354486453075E-2</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>4.9359823399558501E-2</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>6.9673059498640888E-2</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7457,49 +7525,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.48125091979396617</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.65350347327091518</v>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7510,47 +7578,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7561,47 +7629,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.55863466227121317</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>0.33037527593818983</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>0.18308290546662639</v>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7612,47 +7680,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>2.3869305285384647E-2</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>3.5050763008171136E-2</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>5.1299589603283173E-2</v>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7661,49 +7729,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7714,47 +7782,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.10980570587494642</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.10396321786011437</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>4.2440972160534399E-2</v>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7763,9 +7831,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>244</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>262</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7780,50 +7850,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="272">
+      <c r="B48" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>3.9154246231012206E-2</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7832,49 +7902,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="153">
+        <v>251</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7883,49 +7953,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="153">
+        <v>252</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7934,49 +8004,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>242</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7985,7 +8055,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8002,49 +8072,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="156">
+        <v>246</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>6.161103030820473E-2</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8054,47 +8124,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8104,47 +8174,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>5.0874830030000551</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>3.1778092554110788</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>4.3138244989796455</v>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8154,47 +8224,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8202,149 +8272,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>247</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="274">
+      <c r="B58" s="268" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>0.4247985893795031</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="274">
+      <c r="B59" s="268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>6.978230397853305E-2</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9640,8 +9710,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9677,8 +9747,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9690,8 +9760,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9701,8 +9771,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9733,13 +9803,13 @@
         <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9759,9 +9829,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9789,11 +9859,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9836,9 +9906,9 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="88">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
@@ -9864,9 +9934,9 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E12" s="88">
         <f t="shared" si="0"/>
@@ -9892,9 +9962,9 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="88">
         <f t="shared" si="0"/>
@@ -9920,7 +9990,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9933,7 +10003,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9948,9 +10018,9 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="88">
         <f t="shared" si="0"/>
@@ -9975,9 +10045,9 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="88">
         <f t="shared" si="0"/>
@@ -9997,9 +10067,9 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="E17" s="88">
         <f t="shared" si="0"/>
@@ -10019,9 +10089,9 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="88">
         <f t="shared" si="0"/>
@@ -10040,17 +10110,17 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E19" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133">
         <f>Inputs!E56</f>
-        <v>N</v>
+        <v>0</v>
       </c>
       <c r="G19" s="30">
         <f>IF(F19="Y",0,1)</f>
@@ -10065,21 +10135,21 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="E20" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133">
         <f>Inputs!E57</f>
-        <v>Y</v>
+        <v>0</v>
       </c>
       <c r="G20" s="30">
         <f>IF(F20="Y",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
@@ -10092,13 +10162,13 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197" t="str">
         <f>Inputs!D58</f>
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="88">
+        <v>Valued @</v>
+      </c>
+      <c r="E21" s="88" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F21" s="112"/>
       <c r="G21" s="87"/>
@@ -10113,9 +10183,9 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="E22" s="88">
         <f t="shared" si="0"/>
@@ -10158,7 +10228,7 @@
       </c>
       <c r="F24" s="113" t="e">
         <f>E24/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G24" s="87"/>
     </row>
@@ -10180,7 +10250,7 @@
       </c>
       <c r="F25" s="113" t="e">
         <f>E25/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
@@ -10188,7 +10258,7 @@
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10209,7 +10279,7 @@
       </c>
       <c r="F26" s="113" t="e">
         <f>E26/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
@@ -10232,17 +10302,17 @@
         <f>C21+C22</f>
         <v>0</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="62" t="e">
         <f>IF(E27=0,0,E27/C27)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="88">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="88" t="e">
         <f>E21+E22</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F27" s="113" t="e">
         <f>E27/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
@@ -10267,18 +10337,18 @@
       </c>
       <c r="D28" s="57" t="e">
         <f>E28/C28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" s="70" t="e">
         <f>SUM(E24:E27)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10307,9 +10377,9 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="88">
         <v>0</v>
@@ -10333,9 +10403,9 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="88">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
@@ -10360,9 +10430,9 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E32" s="88">
         <f t="shared" si="1"/>
@@ -10387,9 +10457,9 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="88">
         <f t="shared" si="1"/>
@@ -10403,7 +10473,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10417,9 +10487,9 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E34" s="88">
         <f t="shared" si="1"/>
@@ -10444,7 +10514,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10452,13 +10522,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="G35" s="30">
         <f>IF(F35="Y",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="87"/>
     </row>
@@ -10470,17 +10540,17 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E36" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133">
         <f>Inputs!E66</f>
-        <v>N</v>
+        <v>0</v>
       </c>
       <c r="G36" s="30">
         <f>IF(F36="Y",0,1)</f>
@@ -10497,21 +10567,21 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E37" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133">
         <f>Inputs!E67</f>
-        <v>Y</v>
+        <v>0</v>
       </c>
       <c r="G37" s="30">
         <f>IF(F37="Y",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
@@ -10524,9 +10594,9 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E38" s="88">
         <f t="shared" si="1"/>
@@ -10545,9 +10615,9 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E39" s="88">
         <f t="shared" si="1"/>
@@ -10566,9 +10636,9 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E40" s="88">
         <f t="shared" si="1"/>
@@ -10587,9 +10657,9 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E41" s="88">
         <f t="shared" si="1"/>
@@ -10608,7 +10678,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10696,11 +10766,11 @@
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J46" s="8" t="e">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10754,8 +10824,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10770,19 +10840,19 @@
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="88">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" s="88" t="e">
         <f>E28+E48</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10852,7 +10922,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10880,7 +10950,7 @@
       <c r="C57" s="87"/>
       <c r="D57" s="295">
         <f>Inputs!C84</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E57" s="294"/>
       <c r="G57" s="87"/>
@@ -10894,9 +10964,9 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="295">
+      <c r="D58" s="295" t="str">
         <f>Inputs!C85</f>
-        <v>0</v>
+        <v>Dividend</v>
       </c>
       <c r="E58" s="294"/>
       <c r="F58" s="3"/>
@@ -10952,7 +11022,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10960,7 +11030,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10991,14 +11061,14 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
-      <c r="E64" s="69">
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="69" t="e">
         <f>D56+D57+D58</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F64" s="87"/>
       <c r="G64" s="87"/>
@@ -11009,17 +11079,17 @@
       <c r="B65" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="68">
+      <c r="C65" s="68" t="e">
         <f>C63-E64</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D65" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E65" s="61" t="e">
         <f>E63-E64</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F65" s="87"/>
       <c r="G65" s="87"/>
@@ -11058,13 +11128,13 @@
         <f>C49-C63</f>
         <v>0</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E68" s="68" t="e">
         <f>E49-E63</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F68" s="87"/>
       <c r="G68" s="87"/>
@@ -11072,14 +11142,14 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125" t="e">
         <f>I49-E64</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11090,17 +11160,17 @@
       <c r="B70" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="68">
+      <c r="C70" s="68" t="e">
         <f>C68-E69</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D70" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" s="68" t="e">
         <f>E68-E69</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11156,17 +11226,17 @@
         <f>Data!C6</f>
         <v>116484</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235" t="e">
         <f>Inputs!E91</f>
-        <v>116484</v>
-      </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" s="206"/>
+      <c r="H74" s="235" t="e">
         <f>Inputs!F91</f>
-        <v>116484</v>
-      </c>
-      <c r="I74" s="209"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11177,25 +11247,25 @@
         <f>Data!C8</f>
         <v>3771</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>3.237354486453075E-2</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
-        <v>3771</v>
-      </c>
-      <c r="F75" s="160">
+        <v>0</v>
+      </c>
+      <c r="F75" s="159" t="e">
         <f>E75/E74</f>
-        <v>3.237354486453075E-2</v>
-      </c>
-      <c r="H75" s="238">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" s="235" t="e">
         <f>Inputs!F92</f>
-        <v>3771</v>
-      </c>
-      <c r="I75" s="160">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I75" s="159" t="e">
         <f>H75/$H$74</f>
-        <v>3.237354486453075E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K75" s="24"/>
     </row>
@@ -11203,50 +11273,50 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>112713</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161" t="e">
         <f>E74-E75</f>
-        <v>112713</v>
-      </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" s="207"/>
+      <c r="H76" s="161" t="e">
         <f>H74-H75</f>
-        <v>112713</v>
-      </c>
-      <c r="I76" s="210"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>32070</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235" t="e">
         <f>Inputs!E93</f>
-        <v>32069.999999999996</v>
-      </c>
-      <c r="F77" s="160">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" s="159" t="e">
         <f>E77/E74</f>
-        <v>0.27531678170392498</v>
-      </c>
-      <c r="H77" s="238">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" s="235" t="e">
         <f>Inputs!F93</f>
-        <v>32069.999999999996</v>
-      </c>
-      <c r="I77" s="160">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I77" s="159" t="e">
         <f>H77/$H$74</f>
-        <v>0.27531678170392498</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K77" s="24"/>
     </row>
@@ -11258,56 +11328,56 @@
         <f>MAX(Data!C12,0)</f>
         <v>2780.3921568627452</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>2.3869305285384647E-2</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179" t="e">
         <f>E74*F78</f>
-        <v>2780.3921568627452</v>
-      </c>
-      <c r="F78" s="160">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" s="159" t="e">
         <f>I78</f>
-        <v>2.3869305285384647E-2</v>
-      </c>
-      <c r="H78" s="238">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
-        <v>2780.3921568627452</v>
-      </c>
-      <c r="I78" s="160">
+        <v>0</v>
+      </c>
+      <c r="I78" s="159" t="e">
         <f>H78/$H$74</f>
-        <v>2.3869305285384647E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>77862.607843137259</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.66844036814615959</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256" t="e">
         <f>E76-E77-E78</f>
-        <v>77862.607843137259</v>
-      </c>
-      <c r="F79" s="258">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" s="255" t="e">
         <f>E79/E74</f>
-        <v>0.66844036814615959</v>
-      </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G79" s="257"/>
+      <c r="H79" s="256" t="e">
         <f>H76-H77-H78</f>
-        <v>77862.607843137259</v>
-      </c>
-      <c r="I79" s="258">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I79" s="255" t="e">
         <f>H79/H74</f>
-        <v>0.66844036814615959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K79" s="24"/>
     </row>
@@ -11319,87 +11389,87 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179" t="e">
         <f>E74*F80</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="160">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" s="159" t="e">
         <f>I80</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="238">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="160">
+        <v>0.61</v>
+      </c>
+      <c r="I80" s="159" t="e">
         <f>H80/$H$74</f>
-        <v>0</v>
-      </c>
-      <c r="K80" s="181" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>65072</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>0.55863466227121317</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179" t="e">
         <f>E74*F81</f>
-        <v>65071.999999999993</v>
-      </c>
-      <c r="F81" s="160">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" s="159" t="e">
         <f>I81</f>
-        <v>0.55863466227121317</v>
-      </c>
-      <c r="H81" s="238">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H81" s="235" t="e">
         <f>Inputs!F94</f>
-        <v>65071.999999999993</v>
-      </c>
-      <c r="I81" s="160">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I81" s="159" t="e">
         <f>H81/$H$74</f>
-        <v>0.55863466227121317</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K81" s="24"/>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159" t="e">
         <f>E82/E74</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="238">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H82" s="235" t="e">
         <f>Inputs!F95</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="160">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I82" s="159" t="e">
         <f>H82/$H$74</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K82" s="24"/>
     </row>
@@ -11407,29 +11477,29 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>12790.607843137259</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.10980570587494642</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164" t="e">
         <f>E79-E81-E82-E80</f>
-        <v>12790.607843137266</v>
-      </c>
-      <c r="F83" s="164">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" s="163" t="e">
         <f>E83/E74</f>
-        <v>0.10980570587494648</v>
-      </c>
-      <c r="H83" s="165">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" s="164" t="e">
         <f>H79-H81-H82-H80</f>
-        <v>12790.607843137266</v>
-      </c>
-      <c r="I83" s="164">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I83" s="163" t="e">
         <f>H83/$H$74</f>
-        <v>0.10980570587494648</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K83" s="24"/>
     </row>
@@ -11437,51 +11507,51 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>9784.8150000000023</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>8.4001364994333999E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261" t="e">
         <f>E83*(1-F84)</f>
-        <v>9784.8150000000096</v>
-      </c>
-      <c r="F85" s="258">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" s="255" t="e">
         <f>E85/E74</f>
-        <v>8.4001364994334068E-2</v>
-      </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G85" s="257"/>
+      <c r="H85" s="261" t="e">
         <f>H83*(1-I84)</f>
-        <v>9784.8150000000096</v>
-      </c>
-      <c r="I85" s="258">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I85" s="255" t="e">
         <f>H85/$H$74</f>
-        <v>8.4001364994334068E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K85" s="24"/>
     </row>
@@ -11489,93 +11559,93 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.53738111793761001</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167" t="e">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>0.53738111793761045</v>
-      </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" s="206"/>
+      <c r="H86" s="167" t="e">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>0.53738111793761045</v>
-      </c>
-      <c r="I86" s="209"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5703613954479404E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>5.5813521319961215E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259" t="e">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5703613954479453E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259" t="e">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5703613954479453E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
-        <v>0.82</v>
-      </c>
-      <c r="D88" s="166">
+        <v>0</v>
+      </c>
+      <c r="D88" s="165">
         <f>C88/C86</f>
-        <v>1.5259188918788955</v>
-      </c>
-      <c r="E88" s="170">
+        <v>0</v>
+      </c>
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
-        <v>0.61</v>
-      </c>
-      <c r="F88" s="166">
+        <v>0</v>
+      </c>
+      <c r="F88" s="165" t="e">
         <f>E88/E86</f>
-        <v>1.1351347854221043</v>
-      </c>
-      <c r="H88" s="170">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
-        <v>0.61</v>
-      </c>
-      <c r="I88" s="166">
+        <v>0</v>
+      </c>
+      <c r="I88" s="165" t="e">
         <f>H88/H86</f>
-        <v>1.1351347854221043</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4999196879069011E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>0</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3231109873453775E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>0</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3231109873453775E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11597,7 +11667,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11620,27 +11690,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143" t="e">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.365556083834605</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143" t="e">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.365556083834605</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11648,27 +11718,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.28664390021871</v>
+        <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.28664390021871</v>
+        <v>0</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11682,25 +11752,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11709,23 +11779,23 @@
       <c r="B97" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="91">
+      <c r="C97" s="91" t="e">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>818057.70628760918</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122" t="e">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.927652157175409</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122" t="e">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.927652157175409</v>
-      </c>
-      <c r="I97" s="123">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I97" s="122" t="e">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.323632504506293</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11737,64 +11807,64 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="108">
+      <c r="C99" s="108" t="e">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D99" s="211"/>
+      <c r="E99" s="144" t="e">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F99" s="211"/>
+      <c r="H99" s="144" t="e">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="216"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>818057.70628760918</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>38.188504333599099</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>44.927652157175409</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>44.927652157175409</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>44.927652157175409</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>61.323632504506293</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11806,25 +11876,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11835,27 +11905,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>962187.49583476479</v>
+        <v>0</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>44.916759627104241</v>
-      </c>
-      <c r="E103" s="123">
+        <v>0</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>52.843246620122635</v>
+        <v>0</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>52.843246620122635</v>
-      </c>
-      <c r="H103" s="123">
+        <v>0</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>52.843246620122635</v>
+        <v>0</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>72.127958628700497</v>
+        <v>0</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11867,25 +11937,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11894,29 +11964,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91">
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>890122.60106118699</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>41.55263198035167</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="122" t="e">
         <f>(E100+E103)/2</f>
-        <v>48.885449388649022</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>48.885449388649022</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H106" s="122" t="e">
         <f>(H100+H103)/2</f>
-        <v>48.885449388649022</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I106" s="122" t="e">
         <f>(I100+I103)/2</f>
-        <v>66.725795566603395</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11927,14 +11997,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127">
         <f>Inputs!C87</f>
-        <v>Dividend</v>
+        <v>45291</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63CABED-C455-4F2B-8933-CD8CD82B1B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E5425A-3154-447D-B023-CE13C4FAE0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="Fin_Analysis" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
@@ -49,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -57,6 +54,9 @@
     <t>Current Price:</t>
   </si>
   <si>
+    <t>HKD</t>
+  </si>
+  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -1008,13 +1008,6 @@
   </si>
   <si>
     <t>Dividend</t>
-  </si>
-  <si>
-    <t>Pessimistic Case</t>
-  </si>
-  <si>
-    <t>HKD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2414,7 +2407,39 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2621,34 +2646,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Inputs"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Data"/>
-      <sheetName val="Fin_Analysis"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="G3">
-            <v>74.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -2849,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2863,28 +2860,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="140" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" s="187" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="140" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" s="190" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="140" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="188">
         <v>45593</v>
@@ -2892,7 +2889,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="139" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="189">
         <v>8</v>
@@ -2900,24 +2897,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="139" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C8" s="190" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="139" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="192">
         <v>18208334222</v>
@@ -2925,15 +2922,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="139" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="191" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="216">
         <v>45291</v>
@@ -2941,7 +2938,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="217">
         <v>1000000</v>
@@ -2949,7 +2946,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="215" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C14" s="216">
         <v>45473</v>
@@ -2957,80 +2954,80 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C15" s="175" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="219" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="220">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="237" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" s="239" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="237" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C18" s="239" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="237" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="239" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="238" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="239" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="221" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="239" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="223" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C22" s="240" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="148">
         <v>116484</v>
@@ -3101,7 +3098,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="149">
         <v>3771</v>
@@ -3123,7 +3120,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" s="149">
         <v>32070</v>
@@ -3145,7 +3142,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" s="149"/>
       <c r="D28" s="149"/>
@@ -3161,7 +3158,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C29" s="149">
         <v>65072</v>
@@ -3183,7 +3180,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="149">
         <v>2127</v>
@@ -3205,7 +3202,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" s="149"/>
       <c r="D31" s="149"/>
@@ -3221,7 +3218,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" s="149"/>
       <c r="D32" s="149"/>
@@ -3237,7 +3234,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="149"/>
       <c r="D33" s="149"/>
@@ -3253,7 +3250,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" s="214"/>
       <c r="D34" s="149"/>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="214"/>
       <c r="D35" s="149"/>
@@ -3285,11 +3282,9 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214">
-        <v>2784589</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C36" s="214"/>
       <c r="D36" s="149"/>
       <c r="E36" s="149"/>
       <c r="F36" s="149"/>
@@ -3303,10 +3298,10 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C37" s="149">
-        <v>0</v>
+        <v>2784589</v>
       </c>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
@@ -3321,7 +3316,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C38" s="214"/>
       <c r="D38" s="149"/>
@@ -3337,11 +3332,9 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="214">
-        <v>190414</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C39" s="214"/>
       <c r="D39" s="149"/>
       <c r="E39" s="149"/>
       <c r="F39" s="149"/>
@@ -3355,11 +3348,9 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="214">
-        <v>7121</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C40" s="214"/>
       <c r="D40" s="149"/>
       <c r="E40" s="149"/>
       <c r="F40" s="149"/>
@@ -3373,10 +3364,10 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" s="149">
-        <v>0</v>
+        <v>190414</v>
       </c>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
@@ -3391,10 +3382,10 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C42" s="149">
-        <v>0</v>
+        <v>7121</v>
       </c>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
@@ -3409,58 +3400,27 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214">
-        <f>IF(C42="","",C42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="149" t="str">
-        <f>IF(D42="","",D42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="E43" s="149" t="str">
-        <f>IF(E42="","",E42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="F43" s="149" t="str">
-        <f>IF(F42="","",F42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="G43" s="149" t="str">
-        <f>IF(G42="","",G42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="H43" s="149" t="str">
-        <f>IF(H42="","",H42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="I43" s="149" t="str">
-        <f>IF(I42="","",I42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="J43" s="149" t="str">
-        <f>IF(J42="","",J42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="K43" s="149" t="str">
-        <f>IF(K42="","",K42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="L43" s="149" t="str">
-        <f>IF(L42="","",L42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="M43" s="149" t="str">
-        <f>IF(M42="","",M42*Exchange_Rate/[1]Dashboard!$G$3)</f>
-        <v/>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247"/>
+        <v>194</v>
+      </c>
+      <c r="C44" s="247">
+        <v>0.82</v>
+      </c>
       <c r="D44" s="247"/>
       <c r="E44" s="247"/>
       <c r="F44" s="247"/>
@@ -3474,11 +3434,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="151" t="str">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v/>
+        <v>8.5289691129788639E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3523,395 +3483,391 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C47" s="193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" s="193" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
-        <f>D49</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E48" s="112"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E49" s="112"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
-        <v>0.5</v>
+        <f>D51</f>
+        <v>0.6</v>
       </c>
       <c r="E50" s="112"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
-        <f>D48</f>
         <v>0.6</v>
       </c>
       <c r="E51" s="112"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="112"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E53" s="112"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
-        <f>D48</f>
-        <v>0.6</v>
-      </c>
-      <c r="E54" s="112" t="s">
-        <v>67</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="112"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="E55" s="112" t="s">
-        <v>42</v>
-      </c>
+        <f>D52</f>
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="112"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
-        <f>D46</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="218"/>
+        <f>D50</f>
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="218" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
-        <f>D68</f>
-        <v>0.05</v>
-      </c>
-      <c r="E57" s="218"/>
+        <v>0.6</v>
+      </c>
+      <c r="E57" s="218" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59"/>
-      <c r="D58" s="60" t="str">
-        <f>D47</f>
-        <v>Valued @</v>
+      <c r="D58" s="60">
+        <f>D48</f>
+        <v>0.9</v>
       </c>
       <c r="E58" s="112"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" s="119"/>
       <c r="D59" s="194">
-        <f>D49</f>
-        <v>0.6</v>
+        <f>D70</f>
+        <v>0.05</v>
       </c>
       <c r="E59" s="112"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
-        <f>D50</f>
-        <v>0.5</v>
+        <f>D49</f>
+        <v>0.8</v>
       </c>
       <c r="E60" s="112"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
-        <f>D60</f>
-        <v>0.5</v>
+        <f>D51</f>
+        <v>0.6</v>
       </c>
       <c r="E61" s="112"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
-        <v>0.4</v>
+        <f>D52</f>
+        <v>0.5</v>
       </c>
       <c r="E62" s="112"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="E63" s="112" t="s">
-        <v>67</v>
-      </c>
+        <f>D62</f>
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="112"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
-        <v>0.2</v>
-      </c>
-      <c r="E64" s="112" t="s">
-        <v>67</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="E64" s="112"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
-        <f>D63</f>
         <v>0.1</v>
       </c>
       <c r="E65" s="218" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
-        <f>D63</f>
-        <v>0.1</v>
-      </c>
-      <c r="E66" s="218"/>
+        <v>0.3</v>
+      </c>
+      <c r="E66" s="218" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
-        <f>D68</f>
-        <v>0.05</v>
-      </c>
-      <c r="E67" s="218"/>
+        <v>0.2</v>
+      </c>
+      <c r="E67" s="218" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
-        <v>0.05</v>
+        <f>D65</f>
+        <v>0.1</v>
       </c>
       <c r="E68" s="112"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
-        <f>D56</f>
-        <v>0</v>
+        <f>D70</f>
+        <v>0.05</v>
       </c>
       <c r="E69" s="112"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E70" s="112"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59"/>
-      <c r="D71" s="60"/>
+      <c r="D71" s="60">
+        <f>D58</f>
+        <v>0.9</v>
+      </c>
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="243" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" s="244"/>
-      <c r="D72" s="245"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
       <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81" s="119"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C82" s="214"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="59">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="D85">
-        <v>0.02</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="196"/>
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
+        <v>5</v>
+      </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C87" s="233">
-        <f>C24</f>
-        <v>45291</v>
-      </c>
-      <c r="D87" s="266"/>
-      <c r="E87" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
         <v>274</v>
+      </c>
+      <c r="D87" s="266">
+        <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3919,10 +3875,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="F89" s="89" t="s">
         <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
-        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3932,37 +3888,37 @@
         <v>(Numbers in 1000000USD)</v>
       </c>
       <c r="C90" s="284" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D90" s="284"/>
       <c r="E90" s="232" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F90" s="252" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>116484</v>
       </c>
       <c r="D91" s="206"/>
-      <c r="E91" s="248" t="e">
-        <f>E89*D91</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F91" s="248" t="e">
-        <f>F89*D91</f>
-        <v>#VALUE!</v>
+      <c r="E91" s="248">
+        <f>C91</f>
+        <v>116484</v>
+      </c>
+      <c r="F91" s="248">
+        <f>C91</f>
+        <v>116484</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -3972,15 +3928,18 @@
         <f>C92/C91</f>
         <v>3.237354486453075E-2</v>
       </c>
-      <c r="E92" s="249"/>
-      <c r="F92" s="249" t="e">
-        <f>F89*D92</f>
-        <v>#VALUE!</v>
+      <c r="E92" s="249">
+        <f>E91*D92</f>
+        <v>3771</v>
+      </c>
+      <c r="F92" s="249">
+        <f>F91*D92</f>
+        <v>3771</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3990,18 +3949,18 @@
         <f>C93/C91</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="E93" s="249" t="e">
-        <f>E89*D93</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F93" s="249" t="e">
-        <f>F89*D93</f>
-        <v>#VALUE!</v>
+      <c r="E93" s="249">
+        <f>E91*D93</f>
+        <v>32069.999999999996</v>
+      </c>
+      <c r="F93" s="249">
+        <f>F91*D93</f>
+        <v>32069.999999999996</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4012,14 +3971,14 @@
         <v>0.55863466227121317</v>
       </c>
       <c r="E94" s="250"/>
-      <c r="F94" s="249" t="e">
-        <f>F89*D94</f>
-        <v>#VALUE!</v>
+      <c r="F94" s="249">
+        <f>F91*D94</f>
+        <v>65071.999999999993</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4029,15 +3988,18 @@
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249"/>
-      <c r="F95" s="249" t="e">
-        <f>F89*D95</f>
-        <v>#VALUE!</v>
+      <c r="E95" s="249">
+        <f>E91*D95</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="249">
+        <f>F91*D95</f>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4047,17 +4009,15 @@
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250">
-        <f>F96</f>
-        <v>0.61</v>
-      </c>
+      <c r="E96" s="250"/>
       <c r="F96" s="249">
-        <v>0.61</v>
+        <f>F91*D96</f>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4068,19 +4028,27 @@
         <v>2.3869305285384647E-2</v>
       </c>
       <c r="E97" s="250"/>
-      <c r="F97" s="249"/>
+      <c r="F97" s="249">
+        <f>F91*D97</f>
+        <v>2780.3921568627452</v>
+      </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C98" s="234">
         <f>C44</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="D98" s="263"/>
-      <c r="E98" s="251"/>
-      <c r="F98" s="251"/>
+      <c r="E98" s="251">
+        <f>F98</f>
+        <v>0.61</v>
+      </c>
+      <c r="F98" s="251">
+        <v>0.61</v>
+      </c>
       <c r="G98" s="1"/>
     </row>
   </sheetData>
@@ -4090,32 +4058,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="26" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+    <cfRule type="containsBlanks" dxfId="25" priority="3">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="24" priority="1">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="23" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="22" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="21" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4158,7 +4126,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4199,7 +4167,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4211,15 +4179,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>74.849999999999994</v>
+        <v>74.75</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>275</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4228,7 +4196,7 @@
       <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="295">
         <f>Inputs!C10</f>
@@ -4239,7 +4207,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4248,11 +4216,11 @@
       <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1362893.8165167</v>
+        <v>1361072.9830944999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4260,7 +4228,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="184">
         <f>Inputs!C7</f>
@@ -4275,7 +4243,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
@@ -4286,7 +4254,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
@@ -4298,10 +4266,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="132">
-        <v>7.7740767796834307</v>
+        <v>7.7748834292093916</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4311,40 +4279,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="138" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="121" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
@@ -4357,29 +4325,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="121" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="172">
         <v>0.16</v>
@@ -4389,12 +4357,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
@@ -4404,29 +4372,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C19" s="134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="141" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="273" t="e">
+        <v>249</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.42479858937950304</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G20" s="171">
         <v>0.15</v>
@@ -4434,132 +4402,132 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="274" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="275" t="e">
+        <v>247</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>6.161103030820473E-2</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="276" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="277" t="e">
+        <v>262</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
+        <v>3.9154246231012206E-2</v>
       </c>
       <c r="F22" s="141" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="278" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.66844036814615959</v>
       </c>
       <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+        <v>176</v>
+      </c>
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.91936644935517609</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="136" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="170" t="e">
+        <v>255</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
-        <v>#VALUE!</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="F24" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="265" t="e">
+        <v>240</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>#VALUE!</v>
+        <v>17.891012051583637</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="170" t="e">
+        <v>256</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170" t="e">
+        <v>163</v>
+      </c>
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
-        <v>#VALUE!</v>
+        <v>1.1351347854221043</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="170" t="e">
+        <v>257</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F26" s="140" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>0</v>
+        <v>6.3447209255086678E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129" t="e">
+        <v>161</v>
+      </c>
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="128" t="e">
+        <v>44.965701494739989</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#VALUE!</v>
+        <v>83.037532686149035</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="130" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>52.900825287929401</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#VALUE!</v>
+        <v>72.206550161868734</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4567,21 +4535,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="195" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
@@ -4591,7 +4559,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -4602,14 +4570,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
@@ -4619,7 +4587,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
@@ -4629,14 +4597,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
@@ -4646,7 +4614,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
@@ -4661,14 +4629,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="223" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
@@ -5568,27 +5536,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="16" priority="5">
+    <cfRule type="containsBlanks" dxfId="20" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="15" priority="3">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
+    <cfRule type="containsBlanks" dxfId="18" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5647,21 +5615,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="147" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" s="118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G2" s="147" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H2" s="146" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5672,14 +5640,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="145" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5701,7 +5669,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="127">
         <f>Inputs!C13</f>
@@ -5712,7 +5680,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="145" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5723,7 +5691,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5773,7 +5741,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -5824,7 +5792,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -5875,7 +5843,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -5926,7 +5894,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -5977,7 +5945,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6028,7 +5996,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6079,7 +6047,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6130,7 +6098,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="225" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6181,7 +6149,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="225" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6232,7 +6200,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6283,7 +6251,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -6334,7 +6302,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6385,7 +6353,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -6436,7 +6404,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -6487,7 +6455,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6538,7 +6506,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -6589,7 +6557,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -6640,7 +6608,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -6691,7 +6659,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -6742,7 +6710,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="231" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6793,7 +6761,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6844,11 +6812,11 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>2975003</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6895,7 +6863,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
@@ -6946,7 +6914,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
@@ -6997,11 +6965,11 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
+        <v>2784589</v>
       </c>
       <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
@@ -7048,7 +7016,7 @@
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7099,7 +7067,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7150,7 +7118,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="77">
         <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
@@ -7201,11 +7169,11 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>190414</v>
       </c>
       <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
@@ -7252,11 +7220,11 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>7121</v>
       </c>
       <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
@@ -7303,11 +7271,11 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
-        <v>7121</v>
+        <v>0</v>
       </c>
       <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
@@ -7354,7 +7322,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7405,7 +7373,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="98" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
@@ -7456,7 +7424,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7474,7 +7442,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
@@ -7525,7 +7493,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -7576,7 +7544,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -7627,7 +7595,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -7678,7 +7646,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
@@ -7729,7 +7697,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -7780,7 +7748,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
@@ -7831,10 +7799,10 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C47" s="280" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7851,11 +7819,11 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" s="269" t="e">
+        <v>251</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
+        <v>3.9154246231012206E-2</v>
       </c>
       <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
@@ -7902,7 +7870,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
@@ -7953,7 +7921,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
@@ -8004,7 +7972,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
@@ -8055,7 +8023,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8072,11 +8040,11 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="155" t="e">
+        <v>247</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
+        <v>6.161103030820473E-2</v>
       </c>
       <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
@@ -8122,7 +8090,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
@@ -8172,7 +8140,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8222,7 +8190,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
@@ -8272,7 +8240,7 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
@@ -8322,11 +8290,11 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="268" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="271" t="e">
+        <v>249</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
+        <v>0.4247985893795031</v>
       </c>
       <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
@@ -8372,11 +8340,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="271" t="e">
+        <v>250</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
+        <v>6.978230397853305E-2</v>
       </c>
       <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
@@ -9669,27 +9637,27 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23">
-    <cfRule type="containsBlanks" dxfId="11" priority="5">
+    <cfRule type="containsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+    <cfRule type="containsBlanks" dxfId="14" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:M38">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
       <formula>LEN(TRIM(C27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="3">
+    <cfRule type="containsBlanks" dxfId="12" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="11" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9710,7 +9678,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -9729,7 +9697,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -9739,41 +9707,41 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="204">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>190414</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="282">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>183293</v>
       </c>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="198">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>7121</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="87"/>
@@ -9786,10 +9754,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9803,18 +9771,18 @@
         <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-2791710</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#VALUE!</v>
+        <v>15.661264402827523</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -9829,16 +9797,16 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -9856,7 +9824,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="202">
@@ -9875,32 +9843,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -9908,7 +9876,7 @@
       </c>
       <c r="D11" s="197">
         <f>Inputs!D48</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E11" s="88">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
@@ -9917,7 +9885,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -9928,7 +9896,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9936,7 +9904,7 @@
       </c>
       <c r="D12" s="197">
         <f>Inputs!D49</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="88">
         <f t="shared" si="0"/>
@@ -9945,7 +9913,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -9956,7 +9924,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -9964,7 +9932,7 @@
       </c>
       <c r="D13" s="197">
         <f>Inputs!D50</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E13" s="88">
         <f t="shared" si="0"/>
@@ -9973,7 +9941,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -9984,7 +9952,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10001,7 +9969,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="203">
         <f>Inputs!C76</f>
@@ -10012,7 +9980,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10020,7 +9988,7 @@
       </c>
       <c r="D15" s="197">
         <f>Inputs!D52</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="88">
         <f t="shared" si="0"/>
@@ -10029,7 +9997,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10039,7 +10007,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10047,7 +10015,7 @@
       </c>
       <c r="D16" s="197">
         <f>Inputs!D53</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E16" s="88">
         <f t="shared" si="0"/>
@@ -10061,7 +10029,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10069,7 +10037,7 @@
       </c>
       <c r="D17" s="197">
         <f>Inputs!D54</f>
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="88">
         <f t="shared" si="0"/>
@@ -10083,7 +10051,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10091,7 +10059,7 @@
       </c>
       <c r="D18" s="197">
         <f>Inputs!D55</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="88">
         <f t="shared" si="0"/>
@@ -10104,7 +10072,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10112,15 +10080,15 @@
       </c>
       <c r="D19" s="197">
         <f>Inputs!D56</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E19" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G19" s="30">
         <f>IF(F19="Y",0,1)</f>
@@ -10129,7 +10097,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10137,38 +10105,38 @@
       </c>
       <c r="D20" s="197">
         <f>Inputs!D57</f>
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="E20" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
-        <v>0</v>
+        <v>Y</v>
       </c>
       <c r="G20" s="30">
         <f>IF(F20="Y",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197" t="str">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
-        <v>Valued @</v>
-      </c>
-      <c r="E21" s="88" t="e">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="88">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F21" s="112"/>
       <c r="G21" s="87"/>
@@ -10177,7 +10145,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10185,7 +10153,7 @@
       </c>
       <c r="D22" s="197">
         <f>Inputs!D59</f>
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="E22" s="88">
         <f t="shared" si="0"/>
@@ -10194,7 +10162,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10206,13 +10174,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10228,13 +10196,13 @@
       </c>
       <c r="F24" s="113" t="e">
         <f>E24/$E$28</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G24" s="87"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10250,20 +10218,20 @@
       </c>
       <c r="F25" s="113" t="e">
         <f>E25/$E$28</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10279,11 +10247,11 @@
       </c>
       <c r="F26" s="113" t="e">
         <f>E26/$E$28</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10296,27 +10264,27 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
         <v>0</v>
       </c>
-      <c r="D27" s="62" t="e">
+      <c r="D27" s="62">
         <f>IF(E27=0,0,E27/C27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="88" t="e">
+        <v>0</v>
+      </c>
+      <c r="E27" s="88">
         <f>E21+E22</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F27" s="113" t="e">
         <f>E27/$E$28</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10329,7 +10297,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10337,16 +10305,16 @@
       </c>
       <c r="D28" s="57" t="e">
         <f>E28/C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="70" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="70">
         <f>SUM(E24:E27)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="204">
         <f>Inputs!C77</f>
@@ -10362,7 +10330,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10371,7 +10339,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10379,7 +10347,7 @@
       </c>
       <c r="D30" s="197">
         <f>Inputs!D60</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="88">
         <v>0</v>
@@ -10387,7 +10355,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10397,7 +10365,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10405,7 +10373,7 @@
       </c>
       <c r="D31" s="197">
         <f>Inputs!D61</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E31" s="88">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
@@ -10414,7 +10382,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10424,7 +10392,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10432,7 +10400,7 @@
       </c>
       <c r="D32" s="197">
         <f>Inputs!D62</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="88">
         <f t="shared" si="1"/>
@@ -10441,7 +10409,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10451,7 +10419,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10459,7 +10427,7 @@
       </c>
       <c r="D33" s="197">
         <f>Inputs!D63</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="88">
         <f t="shared" si="1"/>
@@ -10471,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I33" s="203">
         <f>Inputs!C81</f>
@@ -10481,7 +10449,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -10489,7 +10457,7 @@
       </c>
       <c r="D34" s="197">
         <f>Inputs!D64</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E34" s="88">
         <f t="shared" si="1"/>
@@ -10498,7 +10466,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -10508,7 +10476,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -10524,17 +10492,17 @@
       </c>
       <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="G35" s="30">
         <f>IF(F35="Y",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="87"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -10542,15 +10510,15 @@
       </c>
       <c r="D36" s="197">
         <f>Inputs!D66</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E36" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G36" s="30">
         <f>IF(F36="Y",0,1)</f>
@@ -10561,7 +10529,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -10569,26 +10537,26 @@
       </c>
       <c r="D37" s="197">
         <f>Inputs!D67</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="E37" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
-        <v>0</v>
+        <v>Y</v>
       </c>
       <c r="G37" s="30">
         <f>IF(F37="Y",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10596,7 +10564,7 @@
       </c>
       <c r="D38" s="197">
         <f>Inputs!D68</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E38" s="88">
         <f t="shared" si="1"/>
@@ -10609,7 +10577,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -10617,7 +10585,7 @@
       </c>
       <c r="D39" s="197">
         <f>Inputs!D69</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E39" s="88">
         <f t="shared" si="1"/>
@@ -10630,7 +10598,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -10638,7 +10606,7 @@
       </c>
       <c r="D40" s="197">
         <f>Inputs!D70</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E40" s="88">
         <f t="shared" si="1"/>
@@ -10651,7 +10619,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -10659,7 +10627,7 @@
       </c>
       <c r="D41" s="197">
         <f>Inputs!D71</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E41" s="88">
         <f t="shared" si="1"/>
@@ -10672,7 +10640,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -10689,11 +10657,11 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>2784589</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10707,7 +10675,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10726,7 +10694,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10745,7 +10713,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10762,20 +10730,20 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J46" s="8" t="e">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10792,20 +10760,20 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="63" t="e">
+        <v>80</v>
+      </c>
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -10822,17 +10790,17 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" s="281">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>2784589</v>
       </c>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -10840,20 +10808,20 @@
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E49" s="88" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="88">
         <f>E28+E48</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
+        <v>2784589</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -10865,14 +10833,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -10884,24 +10852,24 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
-        <v>0</v>
+        <v>7121</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>0</v>
+        <v>7121</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10919,7 +10887,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="124"/>
@@ -10930,7 +10898,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="296">
@@ -10945,28 +10913,28 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="295">
         <f>Inputs!C84</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="295" t="str">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
-        <v>Dividend</v>
+        <v>0</v>
       </c>
       <c r="E58" s="294"/>
       <c r="F58" s="3"/>
@@ -10985,11 +10953,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -10999,7 +10967,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11020,7 +10988,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="116">
         <f>C11+C30</f>
@@ -11041,7 +11009,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11062,13 +11030,13 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="120" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="205"/>
       <c r="D64" s="205"/>
-      <c r="E64" s="69" t="e">
+      <c r="E64" s="69">
         <f>D56+D57+D58</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F64" s="87"/>
       <c r="G64" s="87"/>
@@ -11077,19 +11045,19 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="68" t="e">
+        <v>138</v>
+      </c>
+      <c r="C65" s="68">
         <f>C63-E64</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D65" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="D65" s="29">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E65" s="61" t="e">
+        <v>0</v>
+      </c>
+      <c r="E65" s="61">
         <f>E63-E64</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F65" s="87"/>
       <c r="G65" s="87"/>
@@ -11108,11 +11076,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11122,19 +11090,19 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
         <v>0</v>
       </c>
-      <c r="D68" s="29" t="e">
+      <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E68" s="68" t="e">
+        <v>0</v>
+      </c>
+      <c r="E68" s="68">
         <f>E49-E63</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F68" s="87"/>
       <c r="G68" s="87"/>
@@ -11143,13 +11111,13 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="120" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" s="205"/>
       <c r="D69" s="205"/>
-      <c r="E69" s="125" t="e">
+      <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>#VALUE!</v>
+        <v>2784589</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11158,19 +11126,19 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="68" t="e">
+        <v>139</v>
+      </c>
+      <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D70" s="29" t="e">
+        <v>-2784589</v>
+      </c>
+      <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E70" s="68" t="e">
+        <v>1</v>
+      </c>
+      <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>#VALUE!</v>
+        <v>-2784589</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11180,7 +11148,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11188,15 +11156,15 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11205,43 +11173,43 @@
         <v>(Numbers in 1000000USD)</v>
       </c>
       <c r="C73" s="284" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D73" s="284"/>
       <c r="E73" s="298" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F73" s="284"/>
       <c r="H73" s="298" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>116484</v>
       </c>
       <c r="D74" s="206"/>
-      <c r="E74" s="235" t="e">
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
-        <v>#VALUE!</v>
+        <v>116484</v>
       </c>
       <c r="F74" s="206"/>
-      <c r="H74" s="235" t="e">
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
-        <v>#VALUE!</v>
+        <v>116484</v>
       </c>
       <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11253,46 +11221,46 @@
       </c>
       <c r="E75" s="235">
         <f>Inputs!E92</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="159" t="e">
+        <v>3771</v>
+      </c>
+      <c r="F75" s="159">
         <f>E75/E74</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H75" s="235" t="e">
+        <v>3.237354486453075E-2</v>
+      </c>
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I75" s="159" t="e">
+        <v>3771</v>
+      </c>
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
-        <v>#VALUE!</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="K75" s="24"/>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76" s="160">
         <f>C74-C75</f>
         <v>112713</v>
       </c>
       <c r="D76" s="207"/>
-      <c r="E76" s="161" t="e">
+      <c r="E76" s="161">
         <f>E74-E75</f>
-        <v>#VALUE!</v>
+        <v>112713</v>
       </c>
       <c r="F76" s="207"/>
-      <c r="H76" s="161" t="e">
+      <c r="H76" s="161">
         <f>H74-H75</f>
-        <v>#VALUE!</v>
+        <v>112713</v>
       </c>
       <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11302,27 +11270,27 @@
         <f>C77/$C$74</f>
         <v>0.27531678170392498</v>
       </c>
-      <c r="E77" s="235" t="e">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" s="159" t="e">
+        <v>32069.999999999996</v>
+      </c>
+      <c r="F77" s="159">
         <f>E77/E74</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H77" s="235" t="e">
+        <v>0.27531678170392498</v>
+      </c>
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I77" s="159" t="e">
+        <v>32069.999999999996</v>
+      </c>
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
-        <v>#VALUE!</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="K77" s="24"/>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11332,27 +11300,27 @@
         <f>C78/$C$74</f>
         <v>2.3869305285384647E-2</v>
       </c>
-      <c r="E78" s="179" t="e">
+      <c r="E78" s="179">
         <f>E74*F78</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" s="159" t="e">
+        <v>2780.3921568627452</v>
+      </c>
+      <c r="F78" s="159">
         <f>I78</f>
-        <v>#VALUE!</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="H78" s="235">
         <f>Inputs!F97</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="159" t="e">
+        <v>2780.3921568627452</v>
+      </c>
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
-        <v>#VALUE!</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="253" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C79" s="254">
         <f>C76-C77-C78</f>
@@ -11362,28 +11330,28 @@
         <f>C79/C74</f>
         <v>0.66844036814615959</v>
       </c>
-      <c r="E79" s="256" t="e">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F79" s="255" t="e">
+        <v>77862.607843137259</v>
+      </c>
+      <c r="F79" s="255">
         <f>E79/E74</f>
-        <v>#VALUE!</v>
+        <v>0.66844036814615959</v>
       </c>
       <c r="G79" s="257"/>
-      <c r="H79" s="256" t="e">
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I79" s="255" t="e">
+        <v>77862.607843137259</v>
+      </c>
+      <c r="I79" s="255">
         <f>H79/H74</f>
-        <v>#VALUE!</v>
+        <v>0.66844036814615959</v>
       </c>
       <c r="K79" s="24"/>
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11393,29 +11361,29 @@
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179" t="e">
+      <c r="E80" s="179">
         <f>E74*F80</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F80" s="159" t="e">
+        <v>0</v>
+      </c>
+      <c r="F80" s="159">
         <f>I80</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="H80" s="235">
         <f>Inputs!F96</f>
-        <v>0.61</v>
-      </c>
-      <c r="I80" s="159" t="e">
+        <v>0</v>
+      </c>
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="K80" s="180" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11425,27 +11393,27 @@
         <f>C81/$C$74</f>
         <v>0.55863466227121317</v>
       </c>
-      <c r="E81" s="179" t="e">
+      <c r="E81" s="179">
         <f>E74*F81</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F81" s="159" t="e">
+        <v>65071.999999999993</v>
+      </c>
+      <c r="F81" s="159">
         <f>I81</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H81" s="235" t="e">
+        <v>0.55863466227121317</v>
+      </c>
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I81" s="159" t="e">
+        <v>65071.999999999993</v>
+      </c>
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
-        <v>#VALUE!</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="K81" s="24"/>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11459,23 +11427,23 @@
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159" t="e">
+      <c r="F82" s="159">
         <f>E82/E74</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H82" s="235" t="e">
+        <v>0</v>
+      </c>
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I82" s="159" t="e">
+        <v>0</v>
+      </c>
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
@@ -11485,27 +11453,27 @@
         <f>C83/$C$74</f>
         <v>0.10980570587494642</v>
       </c>
-      <c r="E83" s="164" t="e">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" s="163" t="e">
+        <v>12790.607843137266</v>
+      </c>
+      <c r="F83" s="163">
         <f>E83/E74</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H83" s="164" t="e">
+        <v>0.10980570587494648</v>
+      </c>
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I83" s="163" t="e">
+        <v>12790.607843137266</v>
+      </c>
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
-        <v>#VALUE!</v>
+        <v>0.10980570587494648</v>
       </c>
       <c r="K83" s="24"/>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C84" s="208"/>
       <c r="D84" s="158">
@@ -11526,7 +11494,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="260" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85" s="254">
         <f>C83*(1-I84)</f>
@@ -11536,114 +11504,114 @@
         <f>C85/$C$74</f>
         <v>8.4001364994333999E-2</v>
       </c>
-      <c r="E85" s="261" t="e">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" s="255" t="e">
+        <v>9784.8150000000096</v>
+      </c>
+      <c r="F85" s="255">
         <f>E85/E74</f>
-        <v>#VALUE!</v>
+        <v>8.4001364994334068E-2</v>
       </c>
       <c r="G85" s="257"/>
-      <c r="H85" s="261" t="e">
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I85" s="255" t="e">
+        <v>9784.8150000000096</v>
+      </c>
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
-        <v>#VALUE!</v>
+        <v>8.4001364994334068E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.53738111793761001</v>
       </c>
       <c r="D86" s="206"/>
-      <c r="E86" s="167" t="e">
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>#VALUE!</v>
+        <v>0.53738111793761045</v>
       </c>
       <c r="F86" s="206"/>
-      <c r="H86" s="167" t="e">
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>#VALUE!</v>
+        <v>0.53738111793761045</v>
       </c>
       <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5813521319961215E-2</v>
+        <v>5.5893987277901555E-2</v>
       </c>
       <c r="D87" s="206"/>
-      <c r="E87" s="259" t="e">
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>#VALUE!</v>
+        <v>5.5893987277901604E-2</v>
       </c>
       <c r="F87" s="206"/>
-      <c r="H87" s="259" t="e">
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>#VALUE!</v>
+        <v>5.5893987277901604E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="168">
         <f>Inputs!C44</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="D88" s="165">
         <f>C88/C86</f>
-        <v>0</v>
+        <v>1.5259188918788955</v>
       </c>
       <c r="E88" s="169">
         <f>Inputs!E98</f>
-        <v>0</v>
-      </c>
-      <c r="F88" s="165" t="e">
+        <v>0.61</v>
+      </c>
+      <c r="F88" s="165">
         <f>E88/E86</f>
-        <v>#VALUE!</v>
+        <v>1.1351347854221043</v>
       </c>
       <c r="H88" s="169">
         <f>Inputs!F98</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="165" t="e">
+        <v>0.61</v>
+      </c>
+      <c r="I88" s="165">
         <f>H88/H86</f>
-        <v>#VALUE!</v>
+        <v>1.1351347854221043</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0</v>
+        <v>8.5289691129788639E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>0</v>
+        <v>6.3447209255086678E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>0</v>
+        <v>6.3447209255086678E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11660,27 +11628,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11696,27 +11664,27 @@
       </c>
       <c r="D93" s="236">
         <f>Inputs!C86</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143" t="e">
+        <v>196</v>
+      </c>
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>#VALUE!</v>
+        <v>90.453655201884359</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143" t="e">
+        <v>196</v>
+      </c>
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>#VALUE!</v>
+        <v>90.453655201884359</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C94" s="181">
         <f>Dashboard!G20</f>
@@ -11724,21 +11692,21 @@
       </c>
       <c r="D94" s="267">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0</v>
+        <v>106.40245516755853</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0</v>
+        <v>106.40245516755853</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11757,114 +11725,114 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="123" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91" t="e">
+        <v>126</v>
+      </c>
+      <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>#VALUE!</v>
+        <v>818855.24647394824</v>
       </c>
       <c r="D97" s="210"/>
-      <c r="E97" s="122" t="e">
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>#VALUE!</v>
+        <v>44.971452989070045</v>
       </c>
       <c r="F97" s="210"/>
-      <c r="H97" s="122" t="e">
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I97" s="122" t="e">
+        <v>44.971452989070045</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>#VALUE!</v>
+        <v>61.383418092880717</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>0</v>
+        <v>-55364.944899400078</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-3.0406375577457299</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108" t="e">
+        <v>141</v>
+      </c>
+      <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="D99" s="211"/>
-      <c r="E99" s="144" t="e">
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F99" s="211"/>
-      <c r="H99" s="144" t="e">
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91" t="e">
+        <v>112</v>
+      </c>
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>763490.30157454812</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>35.641193116625658</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>41.930815431324312</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>41.930815431324305</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>41.930815431324305</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#VALUE!</v>
+        <v>58.342780535134985</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11874,58 +11842,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="123" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>0</v>
+        <v>963235.90746224788</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0</v>
+        <v>44.965701494739989</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0</v>
+        <v>52.900825287929401</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0</v>
+        <v>52.900825287929401</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0</v>
+        <v>52.900825287929401</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0</v>
+        <v>72.206550161868734</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11935,58 +11903,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="123" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91" t="e">
+        <v>185</v>
+      </c>
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>863363.10451839806</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E106" s="122" t="e">
+        <v>40.303447305682823</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>47.415820359626856</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H106" s="122" t="e">
+        <v>47.415820359626849</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I106" s="122" t="e">
+        <v>47.415820359626849</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#VALUE!</v>
+        <v>65.274665348501856</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11995,11 +11963,11 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127">
+        <v>158</v>
+      </c>
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
-        <v>45291</v>
+        <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
@@ -12019,32 +11987,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C108">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="10" priority="8">
       <formula>LEN(TRIM(C108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 H74:H82 C86 C88">
-    <cfRule type="containsBlanks" dxfId="5" priority="11">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(C74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(E88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="6">
       <formula>LEN(TRIM(F84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsBlanks" dxfId="1" priority="10">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
       <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="containsBlanks" dxfId="0" priority="15">
+    <cfRule type="containsBlanks" dxfId="4" priority="15">
       <formula>LEN(TRIM(I84))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F19488-75D6-4981-BC6D-1DFD8B090AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{602D7DEE-90BE-481A-9D22-E83D639390C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -974,6 +974,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,7 +2945,10 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -2939,7 +2956,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2948,7 +2965,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2957,7 +2974,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2966,7 +2983,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2975,7 +2992,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2984,7 +3001,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3401,7 +3418,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4758850276892894E-2</v>
+        <v>8.5096220594541083E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3823,7 +3840,7 @@
         <v>229</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3833,11 +3850,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3851,10 +3868,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4075,8 +4092,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4089,8 +4109,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4133,60 +4153,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>75.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>18208334222</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1369266.7334944</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>1363804.2332278001</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4209,11 +4229,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4233,7 +4253,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7730067571004229</v>
+        <v>7.7728133201599121</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4354,7 +4374,7 @@
         <v>246</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.42479858937950304</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4366,20 +4386,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>6.161103030820473E-2</v>
+        <v>251</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.66844036814615959</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>3.9154246231012206E-2</v>
       </c>
@@ -4388,26 +4408,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.66844036814615959</v>
+      <c r="B23" s="275" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>16.230859880082708</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.92512439992322992</v>
+        <v>0.92145667519367591</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>0.55863466227121317</v>
       </c>
@@ -4416,7 +4436,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>18.003062652383488</v>
+        <v>17.931688166851227</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4448,7 +4468,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3052315449883739E-2</v>
+        <v>6.3303286052036667E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4467,10 +4487,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4478,22 +4498,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>44.871443553785817</v>
+        <v>44.923317943795062</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>82.863467863568047</v>
+        <v>82.959263574805234</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>52.789933592689195</v>
-      </c>
-      <c r="G29" s="285">
+        <v>52.850962286817726</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>72.055189446580911</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>72.138490065048032</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5524,7 +5544,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7765,7 +7785,7 @@
       <c r="B47" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>259</v>
       </c>
       <c r="D47" s="36"/>
@@ -9692,7 +9712,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>183293</v>
       </c>
@@ -10739,7 +10759,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10756,7 +10776,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>2784589</v>
       </c>
@@ -10865,11 +10885,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10880,11 +10900,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10896,11 +10916,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11114,19 +11134,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11136,18 +11156,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11514,17 +11534,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5546104532808796E-2</v>
+        <v>5.5767197750438979E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5546104532808845E-2</v>
+        <v>5.5767197750439028E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5546104532808845E-2</v>
+        <v>5.5767197750439028E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11565,17 +11585,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4758850276892894E-2</v>
+        <v>8.5096220594541083E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3052315449883739E-2</v>
+        <v>6.3303286052036667E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3052315449883739E-2</v>
+        <v>6.3303286052036667E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11606,15 +11626,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11635,14 +11655,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.282948241031136</v>
+        <v>90.375291451370472</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.282948241031136</v>
+        <v>90.375291451370472</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11663,14 +11683,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.17941235930307</v>
+        <v>106.30216286188224</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.17941235930307</v>
+        <v>106.30216286188224</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11713,21 +11733,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>817309.87729906733</v>
+        <v>818145.8382350168</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.886581459580341</v>
+        <v>44.932492355423818</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.886581459580341</v>
+        <v>44.932492355423818</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.267573390684532</v>
+        <v>61.330239093642</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11737,14 +11757,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-55351.581117312111</v>
+        <v>-55350.203652858734</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.0399036200925087</v>
+        <v>-3.039827969874505</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11776,27 +11796,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>761958.29618175526</v>
+        <v>762795.63458215806</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.569676163564658</v>
+        <v>35.60876472771691</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>41.846677839487832</v>
+        <v>41.89266438554931</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>41.846677839487832</v>
+        <v>41.89266438554931</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.846677839487832</v>
+        <v>41.89266438554931</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>58.227669770592023</v>
+        <v>58.290411123767498</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11837,27 +11857,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>961216.75441287016</v>
+        <v>962327.98527269461</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>44.871443553785817</v>
+        <v>44.923317943795062</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>52.789933592689195</v>
+        <v>52.850962286817726</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>52.789933592689195</v>
+        <v>52.850962286817726</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>52.789933592689195</v>
+        <v>52.850962286817726</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>72.055189446580911</v>
+        <v>72.138490065048032</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11898,27 +11918,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>861587.52529731276</v>
+        <v>862561.8099274264</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>40.220559858675237</v>
+        <v>40.266041335755986</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>47.318305716088517</v>
+        <v>47.371813336183521</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>47.318305716088517</v>
+        <v>47.371813336183521</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>47.318305716088517</v>
+        <v>47.371813336183521</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>65.141429608586463</v>
+        <v>65.214450594407765</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602D7DEE-90BE-481A-9D22-E83D639390C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A50A0CBD-0FF4-4920-92B7-8064FEE0D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5096220594541083E-2</v>
+        <v>8.5991919324894611E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>74.900000000000006</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1363804.2332278001</v>
+        <v>1349237.5658501999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4253,7 +4253,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7728133201599121</v>
+        <v>7.7707331975301104</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.92145667519367591</v>
+        <v>0.91185870854138573</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.931688166851227</v>
+        <v>17.744910264343197</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3303286052036667E-2</v>
+        <v>6.3969598522177692E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4498,20 +4498,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>44.923317943795062</v>
+        <v>45.052189190124459</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>82.959263574805234</v>
+        <v>83.197248304802898</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>52.850962286817726</v>
+        <v>53.002575517793481</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>72.138490065048032</v>
+        <v>72.345433308524264</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9663,7 +9663,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11534,17 +11534,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5767197750438979E-2</v>
+        <v>5.6354187488308088E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5767197750439028E-2</v>
+        <v>5.6354187488308137E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5767197750439028E-2</v>
+        <v>5.6354187488308137E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11585,17 +11585,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5096220594541083E-2</v>
+        <v>8.5991919324894611E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3303286052036667E-2</v>
+        <v>6.3969598522177692E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3303286052036667E-2</v>
+        <v>6.3969598522177692E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11655,14 +11655,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.375291451370472</v>
+        <v>90.602553975794393</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.375291451370472</v>
+        <v>90.602553975794393</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11683,14 +11683,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.30216286188224</v>
+        <v>106.60711122372543</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.30216286188224</v>
+        <v>106.60711122372543</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11733,21 +11733,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>818145.8382350168</v>
+        <v>820203.19136282674</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.932492355423818</v>
+        <v>45.045481995372548</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.932492355423818</v>
+        <v>45.045481995372548</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.330239093642</v>
+        <v>61.484463381454596</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11757,14 +11757,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-55350.203652858734</v>
+        <v>-55335.391099611916</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.039827969874505</v>
+        <v>-3.0390144658457334</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11774,18 +11774,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-21638298.183777172</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-1366.6292922763853</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-1188.3732976316394</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11796,27 +11796,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>762795.63458215806</v>
+        <v>-20873430.383513957</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.60876472771691</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>41.89266438554931</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>41.89266438554931</v>
+        <v>0</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>41.89266438554931</v>
+        <v>0</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>58.290411123767498</v>
+        <v>0</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11857,27 +11857,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>962327.98527269461</v>
+        <v>965088.6096547785</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>44.923317943795062</v>
+        <v>45.052189190124459</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>52.850962286817726</v>
+        <v>53.002575517793481</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>52.850962286817726</v>
+        <v>53.002575517793481</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>52.850962286817726</v>
+        <v>53.002575517793481</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>72.138490065048032</v>
+        <v>72.345433308524264</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11918,27 +11918,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>862561.8099274264</v>
+        <v>482544.30482738925</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>40.266041335755986</v>
+        <v>22.526094595062229</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>47.371813336183521</v>
+        <v>26.501287758896741</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>47.371813336183521</v>
+        <v>26.501287758896741</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>47.371813336183521</v>
+        <v>26.501287758896741</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>65.214450594407765</v>
+        <v>36.172716654262132</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C499960-2379-4F78-BD35-AA64EAFF750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{952A7C48-9B64-487A-8CE8-FBAD7077F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4618114543251549E-2</v>
+        <v>8.4672194507950577E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>75.25</v>
+        <v>75.2</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>1370177.1502055</v>
+        <v>1369266.7334944</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4466,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7652599016825361</v>
+        <v>7.7650597890218096</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4597,7 +4597,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.92666305464078647</v>
+        <v>0.92607119676378091</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>18.033005109076718</v>
+        <v>18.021487464053067</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2947621794370065E-2</v>
+        <v>6.2987852012012013E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4716,20 +4716,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>52.443911747567114</v>
+        <v>44.811978426613351</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>85.515035772859392</v>
+        <v>82.753654444069923</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>61.698719703020139</v>
+        <v>52.71997461954512</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>74.360900672051656</v>
+        <v>71.959699516582546</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-1187.5362699702905</v>
+        <v>-1187.5056668680504</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-1187.5362699702905</v>
+        <v>-1187.5056668680504</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-1187.5362699702905</v>
+        <v>-1187.5056668680504</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11766,17 +11766,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5453874379299099E-2</v>
+        <v>5.5489315296235665E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5453874379299148E-2</v>
+        <v>5.5489315296235707E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5453874379299148E-2</v>
+        <v>5.5489315296235707E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11817,17 +11817,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4618114543251549E-2</v>
+        <v>8.4672194507950577E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2947621794370065E-2</v>
+        <v>6.2987852012012013E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2947621794370065E-2</v>
+        <v>6.2987852012012013E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11880,21 +11880,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>80.929046252631309</v>
+        <v>90.166385705045599</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>80.929046252631309</v>
+        <v>90.166385705045599</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11915,14 +11915,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>93.836040328330725</v>
+        <v>106.03869987583963</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>93.836040328330725</v>
+        <v>106.03869987583963</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11965,21 +11965,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>968904.82283922611</v>
+        <v>816254.66461671621</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>53.212161586344266</v>
+        <v>44.828629278480967</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>53.212161586344266</v>
+        <v>44.828629278480967</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>64.132680245447929</v>
+        <v>61.188472033592909</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -11989,14 +11989,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-55296.41575988134</v>
+        <v>-55294.990757624306</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.0368739438597361</v>
+        <v>-3.0367956828700344</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12007,17 +12007,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-21623057.304366272</v>
+        <v>-21622500.072852451</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-1187.5362699702905</v>
+        <v>-1187.5056668680504</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-1187.5362699702905</v>
+        <v>-1187.5056668680504</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12084,23 +12084,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>52.443911747567114</v>
+        <v>44.811978426613351</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>61.698719703020139</v>
+        <v>52.71997461954512</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>61.698719703020139</v>
+        <v>52.71997461954512</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>61.698719703020139</v>
+        <v>52.71997461954512</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>74.360900672051656</v>
+        <v>71.959699516582546</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12139,23 +12139,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>26.221955873783557</v>
+        <v>22.405989213306675</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>30.849359851510069</v>
+        <v>26.35998730977256</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>30.849359851510069</v>
+        <v>26.35998730977256</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>30.849359851510069</v>
+        <v>26.35998730977256</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>37.180450336025828</v>
+        <v>35.979849758291273</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{952A7C48-9B64-487A-8CE8-FBAD7077F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BED84FC-F4D3-4AA9-A3E2-7AC263DA9E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>278</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3631,7 +3632,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4672194507950577E-2</v>
+        <v>8.4726930907201431E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4281,7 +4282,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4304,6 +4305,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4322,8 +4326,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4359,24 +4363,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>75.2</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4386,7 +4393,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
@@ -4415,11 +4422,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>1369266.7334944</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>1368356.3167833001</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4442,11 +4449,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4466,7 +4473,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7650597890218096</v>
+        <v>7.7649132410685224</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4514,10 +4521,10 @@
         <v>220</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4564,7 +4571,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4638,7 +4645,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.92607119676378091</v>
+        <v>0.92547292414587745</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4654,7 +4661,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>18.021487464053067</v>
+        <v>18.009844987188099</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4686,7 +4693,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2987852012012013E-2</v>
+        <v>6.3028570552918134E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4705,10 +4712,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4716,22 +4723,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>44.811978426613351</v>
+        <v>49.1800050893346</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>82.753654444069923</v>
+        <v>93.112809237336407</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>52.71997461954512</v>
-      </c>
-      <c r="G29" s="312">
+        <v>57.858829516864233</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>71.959699516582546</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>80.967660206379492</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5713,15 +5720,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5749,7 +5757,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11180,7 +11188,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-1187.5056668680504</v>
+        <v>-1187.4832553825338</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11234,7 +11242,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-1187.5056668680504</v>
+        <v>-1187.4832553825338</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11255,7 +11263,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-1187.5056668680504</v>
+        <v>-1187.4832553825338</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11766,17 +11774,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5489315296235665E-2</v>
+        <v>5.5525186402847017E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5489315296235707E-2</v>
+        <v>5.5525186402847058E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5489315296235707E-2</v>
+        <v>5.5525186402847058E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11817,17 +11825,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4672194507950577E-2</v>
+        <v>8.4726930907201431E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2987852012012013E-2</v>
+        <v>6.3028570552918134E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2987852012012013E-2</v>
+        <v>6.3028570552918134E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11876,7 +11884,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11887,14 +11895,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.166385705045599</v>
+        <v>98.953174468417515</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>90.166385705045599</v>
+        <v>98.953174468417515</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11915,14 +11923,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.03869987583963</v>
+        <v>116.37477260908199</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>106.03869987583963</v>
+        <v>116.37477260908199</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11965,21 +11973,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>816254.66461671621</v>
+        <v>895799.35590074002</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.828629278480967</v>
+        <v>49.197216229609914</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.828629278480967</v>
+        <v>49.197216229609914</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>61.188472033592909</v>
+        <v>68.846596449342073</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -11989,14 +11997,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-55294.990757624306</v>
+        <v>-55293.947189648949</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.0367956828700344</v>
+        <v>-3.0367383702151458</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12007,17 +12015,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-21622500.072852451</v>
+        <v>-21622091.997033756</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-1187.5056668680504</v>
+        <v>-1187.4832553825338</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-1187.5056668680504</v>
+        <v>-1187.4832553825338</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12084,23 +12092,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>44.811978426613351</v>
+        <v>49.1800050893346</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>52.71997461954512</v>
+        <v>57.858829516864233</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>52.71997461954512</v>
+        <v>57.858829516864233</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>52.71997461954512</v>
+        <v>57.858829516864233</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>71.959699516582546</v>
+        <v>80.967660206379492</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12139,23 +12147,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>22.405989213306675</v>
+        <v>24.5900025446673</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>26.35998730977256</v>
+        <v>28.929414758432117</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>26.35998730977256</v>
+        <v>28.929414758432117</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>26.35998730977256</v>
+        <v>28.929414758432117</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>35.979849758291273</v>
+        <v>40.483830103189746</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BED84FC-F4D3-4AA9-A3E2-7AC263DA9E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37FD8CDA-2CD0-4192-98F7-984D78A9501E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4726930907201431E-2</v>
+        <v>8.4616006658982848E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4363,27 +4363,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>75.150000000000006</v>
+        <v>75.25</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4393,40 +4393,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>18208334222</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>1368356.3167833001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1370177.1502055</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4449,11 +4449,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4473,7 +4473,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7649132410685224</v>
+        <v>7.7650664647420244</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4604,7 +4604,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.92547292414587745</v>
+        <v>0.92668613890760998</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>18.009844987188099</v>
+        <v>18.033454332448134</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3028570552918134E-2</v>
+        <v>6.2946053734121404E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4712,10 +4712,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4723,22 +4723,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>49.1800050893346</v>
+        <v>53.188187374254291</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>93.112809237336407</v>
+        <v>94.155926495827941</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>57.858829516864233</v>
-      </c>
-      <c r="G29" s="313">
+        <v>62.574338087357987</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>80.967660206379492</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>81.874718692024302</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5721,15 +5721,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11102,7 +11102,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11113,11 +11113,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11129,11 +11129,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-1187.4832553825338</v>
+        <v>-1187.5066877817071</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-1187.4832553825338</v>
+        <v>-1187.5066877817071</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-1187.4832553825338</v>
+        <v>-1187.5066877817071</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11774,17 +11774,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5525186402847017E-2</v>
+        <v>5.5452492992463971E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5525186402847058E-2</v>
+        <v>5.545249299246402E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5525186402847058E-2</v>
+        <v>5.545249299246402E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11825,17 +11825,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4726930907201431E-2</v>
+        <v>8.4616006658982848E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3028570552918134E-2</v>
+        <v>6.2946053734121404E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3028570552918134E-2</v>
+        <v>6.2946053734121404E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11888,21 +11888,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>98.953174468417515</v>
+        <v>93.723836488636294</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>98.953174468417515</v>
+        <v>93.723836488636294</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11923,14 +11923,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.37477260908199</v>
+        <v>109.44290840440213</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.37477260908199</v>
+        <v>109.44290840440213</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11973,21 +11973,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>895799.35590074002</v>
+        <v>975728.32535799639</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>49.197216229609914</v>
+        <v>53.58690770180857</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>49.197216229609914</v>
+        <v>53.58690770180857</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>68.846596449342073</v>
+        <v>70.115212206254967</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -11997,14 +11997,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-55293.947189648949</v>
+        <v>-55295.038295427956</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.0367383702151458</v>
+        <v>-3.0367982936417319</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12015,17 +12015,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-21622091.997033756</v>
+        <v>-21622518.661989529</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-1187.4832553825338</v>
+        <v>-1187.5066877817071</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-1187.4832553825338</v>
+        <v>-1187.5066877817071</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12092,23 +12092,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.1800050893346</v>
+        <v>53.188187374254291</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>57.858829516864233</v>
+        <v>62.574338087357987</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>57.858829516864233</v>
+        <v>62.574338087357987</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>57.858829516864233</v>
+        <v>62.574338087357987</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>80.967660206379492</v>
+        <v>81.874718692024302</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12147,23 +12147,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>24.5900025446673</v>
+        <v>26.594093687127145</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>28.929414758432117</v>
+        <v>31.287169043678993</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>28.929414758432117</v>
+        <v>31.287169043678993</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>28.929414758432117</v>
+        <v>31.287169043678993</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>40.483830103189746</v>
+        <v>40.937359346012151</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87DA91B-DA74-4799-A7B7-D44F28F1D8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3134F36E-072D-46B5-8F16-0479500C83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4613864134052405E-2</v>
+        <v>8.4785454403827967E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4393,27 +4393,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>75.25</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4423,7 +4423,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
@@ -4452,11 +4452,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>1370177.1502055</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1368356.3167833001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4479,11 +4479,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4503,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7648698488871259</v>
+        <v>7.7702767054239912</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.92670960371654687</v>
+        <v>0.92483411278448246</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>18.033910961227409</v>
+        <v>17.997413620159836</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2944459904599959E-2</v>
+        <v>6.3072106324798857E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4742,10 +4742,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4753,22 +4753,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>53.428278533517734</v>
+        <v>53.491168652619415</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>94.668958755528507</v>
+        <v>94.780393041917335</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>62.856798274726749</v>
-      </c>
-      <c r="G29" s="313">
+        <v>62.93078665014049</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>82.320833700459573</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>82.417733079928126</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5751,15 +5751,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-1187.4766194437636</v>
+        <v>-1188.3034865834795</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11374,7 +11374,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-1187.4766194437636</v>
+        <v>-1188.3034865834795</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-1187.4766194437636</v>
+        <v>-1188.3034865834795</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11906,17 +11906,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5451088904119664E-2</v>
+        <v>5.556353935655773E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5451088904119712E-2</v>
+        <v>5.5563539356557778E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5451088904119712E-2</v>
+        <v>5.5563539356557778E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11957,17 +11957,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4613864134052405E-2</v>
+        <v>8.4785454403827967E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2944459904599959E-2</v>
+        <v>6.3072106324798857E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2944459904599959E-2</v>
+        <v>6.3072106324798857E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12027,14 +12027,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>94.146969016294278</v>
+        <v>94.252682693631314</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>94.146969016294278</v>
+        <v>94.252682693631314</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12055,14 +12055,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>109.93693303748627</v>
+        <v>110.06633916851224</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>109.93693303748627</v>
+        <v>110.06633916851224</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12105,21 +12105,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>980133.42024190328</v>
+        <v>981233.97089390317</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>53.828835097813005</v>
+        <v>53.889277235934031</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>53.828835097813005</v>
+        <v>53.889277235934031</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>70.497300276241106</v>
+        <v>70.576458733835693</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12129,14 +12129,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-55293.638193925224</v>
+        <v>-55332.140419324242</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.0367214001991107</v>
+        <v>-3.0388359387905926</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12147,17 +12147,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-21621971.167642754</v>
+        <v>-21637027.040879887</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-1187.4766194437636</v>
+        <v>-1188.3034865834795</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-1187.4766194437636</v>
+        <v>-1188.3034865834795</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12224,23 +12224,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>53.428278533517734</v>
+        <v>53.491168652619415</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>62.856798274726749</v>
+        <v>62.93078665014049</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>62.856798274726749</v>
+        <v>62.93078665014049</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>62.856798274726749</v>
+        <v>62.93078665014049</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>82.320833700459573</v>
+        <v>82.417733079928126</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12279,23 +12279,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>26.714139266758867</v>
+        <v>26.745584326309707</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>31.428399137363375</v>
+        <v>31.465393325070245</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>31.428399137363375</v>
+        <v>31.465393325070245</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>31.428399137363375</v>
+        <v>31.465393325070245</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>41.160416850229787</v>
+        <v>41.208866539964063</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0005.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0005.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3134F36E-072D-46B5-8F16-0479500C83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC792CBD-44B8-458F-A6CC-0321D746B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4785454403827967E-2</v>
+        <v>8.4482829701734805E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4393,27 +4393,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0005.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>75.150000000000006</v>
+        <v>75.55</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4423,40 +4423,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>HSBC</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>18208334222</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>1368356.3167833001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>1375639.6504720999</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4479,11 +4479,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4503,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7702767054239912</v>
+        <v>7.7837533950805664</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.92483411278448246</v>
+        <v>0.92814694746171933</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.997413620159836</v>
+        <v>18.061881890866168</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3072106324798857E-2</v>
+        <v>6.284698307080272E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4742,10 +4742,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4753,22 +4753,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>53.491168652619415</v>
+        <v>53.538568436909443</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>94.780393041917335</v>
+        <v>94.864380180323053</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>62.93078665014049</v>
-      </c>
-      <c r="G29" s="314">
+        <v>62.986551102246409</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>82.417733079928126</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>82.49076537419397</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5751,15 +5751,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11234,7 +11234,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11245,11 +11245,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11261,11 +11261,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11320,7 +11320,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-1188.3034865834795</v>
+        <v>-1190.364468182157</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11374,7 +11374,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-1188.3034865834795</v>
+        <v>-1190.364468182157</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-1188.3034865834795</v>
+        <v>-1190.364468182157</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11906,17 +11906,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.556353935655773E-2</v>
+        <v>5.5365216428842658E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5563539356557778E-2</v>
+        <v>5.5365216428842699E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5563539356557778E-2</v>
+        <v>5.5365216428842699E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11957,17 +11957,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4785454403827967E-2</v>
+        <v>8.4482829701734805E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3072106324798857E-2</v>
+        <v>6.284698307080272E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3072106324798857E-2</v>
+        <v>6.284698307080272E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12027,14 +12027,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>94.252682693631314</v>
+        <v>94.345216658494849</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>94.252682693631314</v>
+        <v>94.345216658494849</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12055,14 +12055,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.06633916851224</v>
+        <v>110.16387154377333</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.06633916851224</v>
+        <v>110.16387154377333</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12105,21 +12105,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>981233.97089390317</v>
+        <v>982197.31185344642</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>53.889277235934031</v>
+        <v>53.942183830672349</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>53.889277235934031</v>
+        <v>53.942183830672349</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>70.576458733835693</v>
+        <v>70.645748215747815</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12129,14 +12129,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-55332.140419324242</v>
+        <v>-55428.107926368713</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.0388359387905926</v>
+        <v>-3.044106465236033</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12147,17 +12147,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-21637027.040879887</v>
+        <v>-21674554.082653999</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-1188.3034865834795</v>
+        <v>-1190.364468182157</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-1188.3034865834795</v>
+        <v>-1190.364468182157</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12224,23 +12224,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>53.491168652619415</v>
+        <v>53.538568436909443</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>62.93078665014049</v>
+        <v>62.986551102246409</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>62.93078665014049</v>
+        <v>62.986551102246409</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>62.93078665014049</v>
+        <v>62.986551102246409</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>82.417733079928126</v>
+        <v>82.49076537419397</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12279,23 +12279,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>26.745584326309707</v>
+        <v>26.769284218454722</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>31.465393325070245</v>
+        <v>31.493275551123205</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>31.465393325070245</v>
+        <v>31.493275551123205</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>31.465393325070245</v>
+        <v>31.493275551123205</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>41.208866539964063</v>
+        <v>41.245382687096985</v>
       </c>
       <c r="K106" s="75"/>
     </row>
